--- a/res/thermodynamic_properties_h.xlsx
+++ b/res/thermodynamic_properties_h.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Gibbs Potential (Φ)</t>
+          <t>Gibbs Potential</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Phi (Ф)</t>
         </is>
       </c>
     </row>
@@ -482,7 +487,10 @@
         <v>91.90000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>-1872156</v>
+        <v>-7111</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2231.42921</v>
       </c>
     </row>
     <row r="3">
@@ -502,7 +510,10 @@
         <v>106.307758596846</v>
       </c>
       <c r="F3" t="n">
-        <v>-3962827.551719368</v>
+        <v>-17103.9517193692</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1165.668970596846</v>
       </c>
     </row>
     <row r="4">
@@ -522,7 +533,10 @@
         <v>114.6071838919554</v>
       </c>
       <c r="F4" t="n">
-        <v>-6015882.03187738</v>
+        <v>-27972.3859773865</v>
+      </c>
+      <c r="G4" t="n">
+        <v>818.3806413935487</v>
       </c>
     </row>
     <row r="5">
@@ -542,7 +556,10 @@
         <v>114.7357612034035</v>
       </c>
       <c r="F5" t="n">
-        <v>-6054586.728361013</v>
+        <v>-28184.52836102106</v>
+      </c>
+      <c r="G5" t="n">
+        <v>814.0409738700702</v>
       </c>
     </row>
     <row r="6">
@@ -562,7 +579,10 @@
         <v>120.7155292346544</v>
       </c>
       <c r="F6" t="n">
-        <v>-8147052.211693847</v>
+        <v>-39971.4116938618</v>
+      </c>
+      <c r="G6" t="n">
+        <v>639.9927422346545</v>
       </c>
     </row>
     <row r="7">
@@ -582,7 +602,10 @@
         <v>125.3538031071828</v>
       </c>
       <c r="F7" t="n">
-        <v>-10240042.90155357</v>
+        <v>-52283.50155359141</v>
+      </c>
+      <c r="G7" t="n">
+        <v>536.6142163071828</v>
       </c>
     </row>
     <row r="8">
@@ -602,7 +625,10 @@
         <v>129.1435545128678</v>
       </c>
       <c r="F8" t="n">
-        <v>-12333452.13270769</v>
+        <v>-65014.13270772072</v>
+      </c>
+      <c r="G8" t="n">
+        <v>468.3927678462012</v>
       </c>
     </row>
     <row r="9">
@@ -622,7 +648,10 @@
         <v>132.3477495657804</v>
       </c>
       <c r="F9" t="n">
-        <v>-14427209.42469602</v>
+        <v>-78092.82469604633</v>
+      </c>
+      <c r="G9" t="n">
+        <v>420.1603915657805</v>
       </c>
     </row>
     <row r="10">
@@ -642,7 +671,10 @@
         <v>135.123355602267</v>
       </c>
       <c r="F10" t="n">
-        <v>-16521264.68448178</v>
+        <v>-91469.48448181365</v>
+      </c>
+      <c r="G10" t="n">
+        <v>384.358569102267</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +694,10 @@
         <v>137.5716197731485</v>
       </c>
       <c r="F11" t="n">
-        <v>-18615580.45779579</v>
+        <v>-105106.6577958337</v>
+      </c>
+      <c r="G11" t="n">
+        <v>356.8021666620375</v>
       </c>
     </row>
     <row r="12">
@@ -682,7 +717,10 @@
         <v>139.7616729225004</v>
       </c>
       <c r="F12" t="n">
-        <v>-20710127.67292245</v>
+        <v>-118975.2729225005</v>
+      </c>
+      <c r="G12" t="n">
+        <v>334.9884865225005</v>
       </c>
     </row>
     <row r="13">
@@ -702,7 +740,10 @@
         <v>141.7428232678582</v>
       </c>
       <c r="F13" t="n">
-        <v>-22804883.10559459</v>
+        <v>-133052.105594644</v>
+      </c>
+      <c r="G13" t="n">
+        <v>317.3302187224037</v>
       </c>
     </row>
     <row r="14">
@@ -722,7 +763,10 @@
         <v>143.5514781735114</v>
       </c>
       <c r="F14" t="n">
-        <v>-24899827.77380816</v>
+        <v>-147318.1738082137</v>
+      </c>
+      <c r="G14" t="n">
+        <v>302.7726918401781</v>
       </c>
     </row>
     <row r="15">
@@ -742,7 +786,10 @@
         <v>145.2152857933175</v>
       </c>
       <c r="F15" t="n">
-        <v>-26994945.87153125</v>
+        <v>-161757.6715313129</v>
+      </c>
+      <c r="G15" t="n">
+        <v>290.5881917933176</v>
       </c>
     </row>
     <row r="16">
@@ -762,7 +809,10 @@
         <v>146.755737474391</v>
       </c>
       <c r="F16" t="n">
-        <v>-29090224.03246408</v>
+        <v>-176357.2324641475</v>
+      </c>
+      <c r="G16" t="n">
+        <v>280.2586654743911</v>
       </c>
     </row>
     <row r="17">
@@ -782,7 +832,10 @@
         <v>148.1898701461941</v>
       </c>
       <c r="F17" t="n">
-        <v>-31185650.80521923</v>
+        <v>-191105.4052192912</v>
+      </c>
+      <c r="G17" t="n">
+        <v>271.4054838795275</v>
       </c>
     </row>
     <row r="18">
@@ -802,7 +855,10 @@
         <v>149.5314181643571</v>
       </c>
       <c r="F18" t="n">
-        <v>-33281216.2690629</v>
+        <v>-205992.2690629713</v>
+      </c>
+      <c r="G18" t="n">
+        <v>263.7456319143571</v>
       </c>
     </row>
     <row r="19">
@@ -822,7 +878,10 @@
         <v>150.7916153435752</v>
       </c>
       <c r="F19" t="n">
-        <v>-35376911.74608401</v>
+        <v>-221009.1460840779</v>
+      </c>
+      <c r="G19" t="n">
+        <v>257.0634173435752</v>
       </c>
     </row>
     <row r="20">
@@ -842,7 +901,10 @@
         <v>151.9797673958246</v>
       </c>
       <c r="F20" t="n">
-        <v>-37472729.58131241</v>
+        <v>-236148.3813124844</v>
+      </c>
+      <c r="G20" t="n">
+        <v>251.1916478402691</v>
       </c>
     </row>
     <row r="21">
@@ -862,7 +924,10 @@
         <v>153.1036693910844</v>
       </c>
       <c r="F21" t="n">
-        <v>-39568662.971843</v>
+        <v>-251403.1718430604</v>
+      </c>
+      <c r="G21" t="n">
+        <v>245.9987779174002</v>
       </c>
     </row>
     <row r="22">
@@ -882,7 +947,10 @@
         <v>154.1699160136907</v>
       </c>
       <c r="F22" t="n">
-        <v>-41664705.83202731</v>
+        <v>-266767.4320273814</v>
+      </c>
+      <c r="G22" t="n">
+        <v>241.3799298136907</v>
       </c>
     </row>
     <row r="23">
@@ -902,7 +970,10 @@
         <v>155.1841360429068</v>
       </c>
       <c r="F23" t="n">
-        <v>-43760852.68569004</v>
+        <v>-282235.6856901043</v>
+      </c>
+      <c r="G23" t="n">
+        <v>237.2504927095735</v>
       </c>
     </row>
     <row r="24">
@@ -922,7 +993,10 @@
         <v>156.1511722358193</v>
       </c>
       <c r="F24" t="n">
-        <v>-45857098.57891873</v>
+        <v>-297802.9789188025</v>
+      </c>
+      <c r="G24" t="n">
+        <v>233.541476963092</v>
       </c>
     </row>
     <row r="25">
@@ -942,7 +1016,10 @@
         <v>157.0752211915031</v>
       </c>
       <c r="F25" t="n">
-        <v>-47953439.0087404</v>
+        <v>-313464.8087404573</v>
+      </c>
+      <c r="G25" t="n">
+        <v>230.1960871915032</v>
       </c>
     </row>
     <row r="26">
@@ -962,7 +1039,10 @@
         <v>157.9599434264957</v>
       </c>
       <c r="F26" t="n">
-        <v>-50049869.86422353</v>
+        <v>-329217.0642235898</v>
+      </c>
+      <c r="G26" t="n">
+        <v>227.1671572598291</v>
       </c>
     </row>
     <row r="27">
@@ -982,7 +1062,10 @@
         <v>158.8085509649176</v>
       </c>
       <c r="F27" t="n">
-        <v>-52146387.37741222</v>
+        <v>-345055.977412294</v>
+      </c>
+      <c r="G27" t="n">
+        <v>224.4152048049176</v>
       </c>
     </row>
     <row r="28">
@@ -1002,7 +1085,10 @@
         <v>159.6238777393346</v>
       </c>
       <c r="F28" t="n">
-        <v>-54242988.08212221</v>
+        <v>-360978.0821222701</v>
+      </c>
+      <c r="G28" t="n">
+        <v>221.9069377393346</v>
       </c>
     </row>
     <row r="29">
@@ -1022,7 +1108,10 @@
         <v>160.4084366979405</v>
       </c>
       <c r="F29" t="n">
-        <v>-56339668.77908438</v>
+        <v>-376980.1790844394</v>
+      </c>
+      <c r="G29" t="n">
+        <v>219.6140949942368</v>
       </c>
     </row>
     <row r="30">
@@ -1042,7 +1131,10 @@
         <v>161.1644665210267</v>
       </c>
       <c r="F30" t="n">
-        <v>-58436426.50625882</v>
+        <v>-393059.3062588747</v>
+      </c>
+      <c r="G30" t="n">
+        <v>217.5125375210267</v>
       </c>
     </row>
     <row r="31">
@@ -1062,7 +1154,10 @@
         <v>161.8939701360258</v>
       </c>
       <c r="F31" t="n">
-        <v>-60533258.51339442</v>
+        <v>-409212.7133944749</v>
+      </c>
+      <c r="G31" t="n">
+        <v>215.581528825681</v>
       </c>
     </row>
     <row r="32">
@@ -1082,7 +1177,10 @@
         <v>162.5987467004663</v>
       </c>
       <c r="F32" t="n">
-        <v>-62630162.24010135</v>
+        <v>-425437.8401013989</v>
+      </c>
+      <c r="G32" t="n">
+        <v>213.8031605671329</v>
       </c>
     </row>
     <row r="33">
@@ -1102,7 +1200,10 @@
         <v>163.2804183387379</v>
       </c>
       <c r="F33" t="n">
-        <v>-64727135.29685003</v>
+        <v>-441732.2968500877</v>
+      </c>
+      <c r="G33" t="n">
+        <v>212.1618902742218</v>
       </c>
     </row>
     <row r="34">
@@ -1122,7 +1223,10 @@
         <v>163.9404526325956</v>
       </c>
       <c r="F34" t="n">
-        <v>-66824175.44842426</v>
+        <v>-458093.848424306</v>
+      </c>
+      <c r="G34" t="n">
+        <v>210.6441665075956</v>
       </c>
     </row>
     <row r="35">
@@ -1142,7 +1246,10 @@
         <v>164.5801816498045</v>
       </c>
       <c r="F35" t="n">
-        <v>-68921280.59944431</v>
+        <v>-474520.399444355</v>
+      </c>
+      <c r="G35" t="n">
+        <v>209.2381228013197</v>
       </c>
     </row>
     <row r="36">
@@ -1162,7 +1269,10 @@
         <v>165.2008181313178</v>
       </c>
       <c r="F36" t="n">
-        <v>-71018448.78164645</v>
+        <v>-491009.9816464804</v>
+      </c>
+      <c r="G36" t="n">
+        <v>207.9333261313178</v>
       </c>
     </row>
     <row r="37">
@@ -1182,7 +1292,10 @@
         <v>165.8034693314205</v>
       </c>
       <c r="F37" t="n">
-        <v>-73115678.14265995</v>
+        <v>-507560.7426599716</v>
+      </c>
+      <c r="G37" t="n">
+        <v>206.7205689314205</v>
       </c>
     </row>
     <row r="38">
@@ -1202,7 +1315,10 @@
         <v>166.3891489077235</v>
       </c>
       <c r="F38" t="n">
-        <v>-75212966.93606777</v>
+        <v>-524170.9360678047</v>
+      </c>
+      <c r="G38" t="n">
+        <v>205.5916961299458</v>
       </c>
     </row>
     <row r="39">
@@ -1222,7 +1338,10 @@
         <v>166.958787181733</v>
       </c>
       <c r="F39" t="n">
-        <v>-77310313.51257239</v>
+        <v>-540838.9125724119</v>
+      </c>
+      <c r="G39" t="n">
+        <v>204.5394605330843</v>
       </c>
     </row>
     <row r="40">
@@ -1242,7 +1361,10 @@
         <v>167.5132400308212</v>
       </c>
       <c r="F40" t="n">
-        <v>-79407716.3121171</v>
+        <v>-557563.1121171206</v>
+      </c>
+      <c r="G40" t="n">
+        <v>203.5574012939791</v>
       </c>
     </row>
     <row r="41">
@@ -1262,7 +1384,10 @@
         <v>168.0532966249791</v>
       </c>
       <c r="F41" t="n">
-        <v>-81505173.85683741</v>
+        <v>-574342.0568374186</v>
+      </c>
+      <c r="G41" t="n">
+        <v>202.6397412916458</v>
       </c>
     </row>
     <row r="42">
@@ -1282,7 +1407,10 @@
         <v>168.5796861838967</v>
       </c>
       <c r="F42" t="n">
-        <v>-83602684.74473558</v>
+        <v>-591174.3447355866</v>
+      </c>
+      <c r="G42" t="n">
+        <v>201.7813000838966</v>
       </c>
     </row>
     <row r="43">
@@ -1302,7 +1430,10 @@
         <v>169.0930838995642</v>
       </c>
       <c r="F43" t="n">
-        <v>-85700247.64398821</v>
+        <v>-608058.6439882134</v>
+      </c>
+      <c r="G43" t="n">
+        <v>200.9774197532228</v>
       </c>
     </row>
     <row r="44">
@@ -1322,7 +1453,10 @@
         <v>169.5941161450872</v>
       </c>
       <c r="F44" t="n">
-        <v>-87797861.28780937</v>
+        <v>-624993.687809366</v>
+      </c>
+      <c r="G44" t="n">
+        <v>200.2239014784205</v>
       </c>
     </row>
     <row r="45">
@@ -1342,7 +1476,10 @@
         <v>170.0833650705173</v>
       </c>
       <c r="F45" t="n">
-        <v>-89895524.46980324</v>
+        <v>-641978.2698032246</v>
+      </c>
+      <c r="G45" t="n">
+        <v>199.5169510705173</v>
       </c>
     </row>
     <row r="46">
@@ -1362,7 +1499,10 @@
         <v>170.5613726702806</v>
       </c>
       <c r="F46" t="n">
-        <v>-91993236.03974923</v>
+        <v>-659011.2397492345</v>
+      </c>
+      <c r="G46" t="n">
+        <v>198.8531320339169</v>
       </c>
     </row>
     <row r="47">
@@ -1382,7 +1522,10 @@
         <v>171.0286443934667</v>
       </c>
       <c r="F47" t="n">
-        <v>-94090994.89977063</v>
+        <v>-676091.4997706</v>
+      </c>
+      <c r="G47" t="n">
+        <v>198.2293249712444</v>
       </c>
     </row>
     <row r="48">
@@ -1402,7 +1545,10 @@
         <v>171.4856523572831</v>
       </c>
       <c r="F48" t="n">
-        <v>-96188800.00084352</v>
+        <v>-693218.0008435021</v>
+      </c>
+      <c r="G48" t="n">
+        <v>197.6426923572831</v>
       </c>
     </row>
     <row r="49">
@@ -1422,7 +1568,10 @@
         <v>171.9328382148911</v>
       </c>
       <c r="F49" t="n">
-        <v>-98286650.33961003</v>
+        <v>-710389.7396099884</v>
+      </c>
+      <c r="G49" t="n">
+        <v>197.0906478744656</v>
       </c>
     </row>
     <row r="50">
@@ -1442,7 +1591,10 @@
         <v>172.3706157212944</v>
       </c>
       <c r="F50" t="n">
-        <v>-100384544.9554623</v>
+        <v>-727605.7554622132</v>
+      </c>
+      <c r="G50" t="n">
+        <v>196.5708296379611</v>
       </c>
     </row>
     <row r="51">
@@ -1462,7 +1614,10 @@
         <v>172.7993730346426</v>
       </c>
       <c r="F51" t="n">
-        <v>-102482482.9278698</v>
+        <v>-744865.1278697485</v>
+      </c>
+      <c r="G51" t="n">
+        <v>196.0810767489283</v>
       </c>
     </row>
     <row r="52">
@@ -1482,7 +1637,10 @@
         <v>173.2194747850308</v>
       </c>
       <c r="F52" t="n">
-        <v>-104580463.3739252</v>
+        <v>-762166.9739251538</v>
+      </c>
+      <c r="G52" t="n">
+        <v>195.6194087050308</v>
       </c>
     </row>
     <row r="53">
@@ -1502,7 +1660,10 @@
         <v>173.6312639384249</v>
       </c>
       <c r="F53" t="n">
-        <v>-106678485.446086</v>
+        <v>-779510.446085967</v>
+      </c>
+      <c r="G53" t="n">
+        <v>195.1840072717582</v>
       </c>
     </row>
     <row r="54">
@@ -1522,7 +1683,10 @@
         <v>174.0350634795874</v>
       </c>
       <c r="F54" t="n">
-        <v>-108776548.3300939</v>
+        <v>-796894.7300938545</v>
+      </c>
+      <c r="G54" t="n">
+        <v>194.7732004795874</v>
       </c>
     </row>
     <row r="55">
@@ -1542,7 +1706,10 @@
         <v>174.4311779346937</v>
       </c>
       <c r="F55" t="n">
-        <v>-110874651.243054</v>
+        <v>-814319.0430538766</v>
+      </c>
+      <c r="G55" t="n">
+        <v>194.3854484629956</v>
       </c>
     </row>
     <row r="56">
@@ -1562,7 +1729,10 @@
         <v>174.8198947516222</v>
       </c>
       <c r="F56" t="n">
-        <v>-112972793.4316588</v>
+        <v>-831782.6316587598</v>
+      </c>
+      <c r="G56" t="n">
+        <v>194.0193308997703</v>
       </c>
     </row>
     <row r="57">
@@ -1582,7 +1752,10 @@
         <v>175.2014855535895</v>
       </c>
       <c r="F57" t="n">
-        <v>-115070974.1705448</v>
+        <v>-849284.770544742</v>
+      </c>
+      <c r="G57" t="n">
+        <v>193.6735358444986</v>
       </c>
     </row>
     <row r="58">
@@ -1602,7 +1775,10 @@
         <v>175.5762072798265</v>
       </c>
       <c r="F58" t="n">
-        <v>-117169192.7607671</v>
+        <v>-866824.7607670284</v>
+      </c>
+      <c r="G58" t="n">
+        <v>193.3468497798265</v>
       </c>
     </row>
     <row r="59">
@@ -1622,7 +1798,10 @@
         <v>175.9443032252933</v>
       </c>
       <c r="F59" t="n">
-        <v>-119267448.5283843</v>
+        <v>-884401.9283841714</v>
+      </c>
+      <c r="G59" t="n">
+        <v>193.0381487340652</v>
       </c>
     </row>
     <row r="60">
@@ -1642,7 +1821,10 @@
         <v>176.306003989969</v>
       </c>
       <c r="F60" t="n">
-        <v>-121365740.8231419</v>
+        <v>-902015.6231418204</v>
+      </c>
+      <c r="G60" t="n">
+        <v>192.7463903347966</v>
       </c>
     </row>
     <row r="61">
@@ -1662,7 +1844,10 @@
         <v>176.6615283469947</v>
       </c>
       <c r="F61" t="n">
-        <v>-123464069.0172474</v>
+        <v>-919665.2172472687</v>
+      </c>
+      <c r="G61" t="n">
+        <v>192.4706066859777</v>
       </c>
     </row>
     <row r="62">
@@ -1682,7 +1867,10 @@
         <v>177.0110840378508</v>
       </c>
       <c r="F62" t="n">
-        <v>-125562432.5042272</v>
+        <v>-937350.1042271049</v>
+      </c>
+      <c r="G62" t="n">
+        <v>192.2098979711841</v>
       </c>
     </row>
     <row r="63">
@@ -1702,7 +1890,10 @@
         <v>177.6930695460717</v>
       </c>
       <c r="F63" t="n">
-        <v>-129759263.0311858</v>
+        <v>-972823.4311856444</v>
+      </c>
+      <c r="G63" t="n">
+        <v>191.7304125138136</v>
       </c>
     </row>
     <row r="64">
@@ -1722,7 +1913,10 @@
         <v>178.3534280945337</v>
       </c>
       <c r="F64" t="n">
-        <v>-133956227.9398052</v>
+        <v>-1008431.139805015</v>
+      </c>
+      <c r="G64" t="n">
+        <v>191.3018920320336</v>
       </c>
     </row>
     <row r="65">
@@ -1742,7 +1936,10 @@
         <v>178.9934917490871</v>
       </c>
       <c r="F65" t="n">
-        <v>-138153323.0455441</v>
+        <v>-1044169.045543975</v>
+      </c>
+      <c r="G65" t="n">
+        <v>190.9190693248447</v>
       </c>
     </row>
     <row r="66">
@@ -1762,7 +1959,10 @@
         <v>179.6144732487085</v>
       </c>
       <c r="F66" t="n">
-        <v>-142350544.4180914</v>
+        <v>-1080033.218091218</v>
+      </c>
+      <c r="G66" t="n">
+        <v>190.5773342487085</v>
       </c>
     </row>
     <row r="67">
@@ -1782,7 +1982,10 @@
         <v>180.2174798456447</v>
       </c>
       <c r="F67" t="n">
-        <v>-146547888.3589197</v>
+        <v>-1116019.958919513</v>
+      </c>
+      <c r="G67" t="n">
+        <v>190.2726366456447</v>
       </c>
     </row>
     <row r="68">
@@ -1802,7 +2005,10 @@
         <v>180.8035251954068</v>
       </c>
       <c r="F68" t="n">
-        <v>-150745351.3814071</v>
+        <v>-1152125.781406929</v>
+      </c>
+      <c r="G68" t="n">
+        <v>190.0014058065178</v>
       </c>
     </row>
     <row r="69">
@@ -1822,7 +2028,10 @@
         <v>181.37353961734</v>
       </c>
       <c r="F69" t="n">
-        <v>-154942930.1931685</v>
+        <v>-1188347.393168316</v>
+      </c>
+      <c r="G69" t="n">
+        <v>189.7604832930157</v>
       </c>
     </row>
     <row r="70">
@@ -1842,7 +2051,10 @@
         <v>181.9283789865951</v>
       </c>
       <c r="F70" t="n">
-        <v>-159140621.6802983</v>
+        <v>-1224681.680298122</v>
+      </c>
+      <c r="G70" t="n">
+        <v>189.547066618174</v>
       </c>
     </row>
     <row r="71">
@@ -1862,7 +2074,10 @@
         <v>182.4688324708805</v>
       </c>
       <c r="F71" t="n">
-        <v>-163338422.8932731</v>
+        <v>-1261125.693272867</v>
+      </c>
+      <c r="G71" t="n">
+        <v>189.3586618042138</v>
       </c>
     </row>
     <row r="72">
@@ -1882,7 +2097,10 @@
         <v>182.9956292875432</v>
       </c>
       <c r="F72" t="n">
-        <v>-167536331.0343005</v>
+        <v>-1297676.634300345</v>
+      </c>
+      <c r="G72" t="n">
+        <v>189.1930432375432</v>
       </c>
     </row>
     <row r="73">
@@ -1902,7 +2120,10 @@
         <v>183.5094446261704</v>
       </c>
       <c r="F73" t="n">
-        <v>-171734343.4459348</v>
+        <v>-1334331.845934597</v>
+      </c>
+      <c r="G73" t="n">
+        <v>189.0482195529996</v>
       </c>
     </row>
     <row r="74">
@@ -1922,7 +2143,10 @@
         <v>184.0109048574039</v>
       </c>
       <c r="F74" t="n">
-        <v>-175932457.6008024</v>
+        <v>-1371088.800802192</v>
+      </c>
+      <c r="G74" t="n">
+        <v>188.9224045240705</v>
       </c>
     </row>
     <row r="75">
@@ -1942,7 +2166,10 @@
         <v>184.5005921287725</v>
       </c>
       <c r="F75" t="n">
-        <v>-180130671.0923077</v>
+        <v>-1407945.092307443</v>
+      </c>
+      <c r="G75" t="n">
+        <v>188.8139921287725</v>
       </c>
     </row>
     <row r="76">
@@ -1962,7 +2189,10 @@
         <v>184.9790484321188</v>
       </c>
       <c r="F76" t="n">
-        <v>-184328981.6262028</v>
+        <v>-1444898.426202645</v>
+      </c>
+      <c r="G76" t="n">
+        <v>188.721535113937</v>
       </c>
     </row>
     <row r="77">
@@ -1982,7 +2212,10 @@
         <v>185.44677921389</v>
       </c>
       <c r="F77" t="n">
-        <v>-188527387.0129252</v>
+        <v>-1481946.612925009</v>
+      </c>
+      <c r="G77" t="n">
+        <v>188.6437265027788</v>
       </c>
     </row>
     <row r="78">
@@ -2002,7 +2235,10 @@
         <v>185.9042565885913</v>
       </c>
       <c r="F78" t="n">
-        <v>-192725885.1606152</v>
+        <v>-1519087.56061504</v>
+      </c>
+      <c r="G78" t="n">
+        <v>188.5793835885913</v>
       </c>
     </row>
     <row r="79">
@@ -2022,7 +2258,10 @@
         <v>186.351922206623</v>
       </c>
       <c r="F79" t="n">
-        <v>-196924474.0687424</v>
+        <v>-1556319.268742256</v>
+      </c>
+      <c r="G79" t="n">
+        <v>188.5274340364102</v>
       </c>
     </row>
     <row r="80">
@@ -2042,7 +2281,10 @@
         <v>186.7901898201682</v>
       </c>
       <c r="F80" t="n">
-        <v>-201123151.8222738</v>
+        <v>-1593639.822273614</v>
+      </c>
+      <c r="G80" t="n">
+        <v>188.4869037785015</v>
       </c>
     </row>
     <row r="81">
@@ -2062,7 +2304,10 @@
         <v>187.2194475844972</v>
       </c>
       <c r="F81" t="n">
-        <v>-205321916.5863282</v>
+        <v>-1631047.386328073</v>
+      </c>
+      <c r="G81" t="n">
+        <v>188.45690644164</v>
       </c>
     </row>
     <row r="82">
@@ -2082,7 +2327,10 @@
         <v>187.6400601267675</v>
       </c>
       <c r="F82" t="n">
-        <v>-209520766.6012678</v>
+        <v>-1668540.201267674</v>
+      </c>
+      <c r="G82" t="n">
+        <v>188.4366340867674</v>
       </c>
     </row>
     <row r="83">
@@ -2102,7 +2350,10 @@
         <v>188.6559705354834</v>
       </c>
       <c r="F83" t="n">
-        <v>-220018253.6906227</v>
+        <v>-1762634.290622575</v>
+      </c>
+      <c r="G83" t="n">
+        <v>188.4238130688167</v>
       </c>
     </row>
     <row r="84">
@@ -2122,7 +2373,10 @@
         <v>189.6247798613407</v>
       </c>
       <c r="F84" t="n">
-        <v>-230516238.5784748</v>
+        <v>-1857226.178474748</v>
+      </c>
+      <c r="G84" t="n">
+        <v>188.4574120067952</v>
       </c>
     </row>
     <row r="85">
@@ -2142,7 +2396,10 @@
         <v>190.5506846494626</v>
       </c>
       <c r="F85" t="n">
-        <v>-241014698.8734689</v>
+        <v>-1952293.473468819</v>
+      </c>
+      <c r="G85" t="n">
+        <v>188.5294290494626</v>
       </c>
     </row>
     <row r="86">
@@ -2162,7 +2419,10 @@
         <v>191.4373453600283</v>
       </c>
       <c r="F86" t="n">
-        <v>-251513614.1443204</v>
+        <v>-2047815.74432034</v>
+      </c>
+      <c r="G86" t="n">
+        <v>188.633359326695</v>
       </c>
     </row>
     <row r="87">
@@ -2182,7 +2442,10 @@
         <v>192.2879739584154</v>
       </c>
       <c r="F87" t="n">
-        <v>-262012965.6744802</v>
+        <v>-2143774.274480192</v>
+      </c>
+      <c r="G87" t="n">
+        <v>188.7638759264154</v>
       </c>
     </row>
     <row r="88">
@@ -2202,7 +2465,10 @@
         <v>193.1054043160819</v>
       </c>
       <c r="F88" t="n">
-        <v>-272512736.256109</v>
+        <v>-2240151.856109065</v>
+      </c>
+      <c r="G88" t="n">
+        <v>188.916587516082</v>
       </c>
     </row>
     <row r="89">
@@ -2222,7 +2488,10 @@
         <v>193.8921493177705</v>
       </c>
       <c r="F89" t="n">
-        <v>-283012910.0157898</v>
+        <v>-2336932.615789902</v>
+      </c>
+      <c r="G89" t="n">
+        <v>189.0878521770298</v>
       </c>
     </row>
     <row r="90">
@@ -2242,7 +2511,10 @@
         <v>194.6504475779994</v>
       </c>
       <c r="F90" t="n">
-        <v>-293513472.2660919</v>
+        <v>-2434101.866091992</v>
+      </c>
+      <c r="G90" t="n">
+        <v>189.2746329779995</v>
       </c>
     </row>
     <row r="91">
@@ -2262,7 +2534,10 @@
         <v>195.3823019561281</v>
       </c>
       <c r="F91" t="n">
-        <v>-304014409.3783636</v>
+        <v>-2531645.978363857</v>
+      </c>
+      <c r="G91" t="n">
+        <v>189.4743848940591</v>
       </c>
     </row>
     <row r="92">
@@ -2282,7 +2557,10 @@
         <v>196.089511539333</v>
       </c>
       <c r="F92" t="n">
-        <v>-314515708.6730897</v>
+        <v>-2629552.273089996</v>
+      </c>
+      <c r="G92" t="n">
+        <v>189.6849655126664</v>
       </c>
     </row>
     <row r="93">
@@ -2302,7 +2580,10 @@
         <v>196.7736983793971</v>
       </c>
       <c r="F93" t="n">
-        <v>-325017358.3248804</v>
+        <v>-2727808.924880655</v>
+      </c>
+      <c r="G93" t="n">
+        <v>189.9045639664939</v>
       </c>
     </row>
     <row r="94">
@@ -2322,7 +2603,10 @@
         <v>197.4363299832349</v>
       </c>
       <c r="F94" t="n">
-        <v>-335519347.2797314</v>
+        <v>-2826404.879731759</v>
+      </c>
+      <c r="G94" t="n">
+        <v>190.1316439582349</v>
       </c>
     </row>
     <row r="95">
@@ -2342,7 +2626,10 @@
         <v>198.0787383415621</v>
       </c>
       <c r="F95" t="n">
-        <v>-346021665.1826355</v>
+        <v>-2925329.782635774</v>
+      </c>
+      <c r="G95" t="n">
+        <v>190.3648977718651</v>
       </c>
     </row>
     <row r="96">
@@ -2362,7 +2649,10 @@
         <v>198.7021361160963</v>
       </c>
       <c r="F96" t="n">
-        <v>-356524302.3139733</v>
+        <v>-3024573.913973637</v>
+      </c>
+      <c r="G96" t="n">
+        <v>190.6032089160963</v>
       </c>
     </row>
     <row r="97">
@@ -2382,7 +2672,10 @@
         <v>199.3076304797254</v>
       </c>
       <c r="F97" t="n">
-        <v>-367027249.5333948</v>
+        <v>-3124128.133395195</v>
+      </c>
+      <c r="G97" t="n">
+        <v>190.8456215997254</v>
       </c>
     </row>
     <row r="98">
@@ -2402,7 +2695,10 @@
         <v>199.8962350065254</v>
       </c>
       <c r="F98" t="n">
-        <v>-377530498.2301171</v>
+        <v>-3223983.830117457</v>
+      </c>
+      <c r="G98" t="n">
+        <v>191.0913156509698</v>
       </c>
     </row>
     <row r="99">
@@ -2422,7 +2718,10 @@
         <v>200.4688799323549</v>
       </c>
       <c r="F99" t="n">
-        <v>-388034040.2787482</v>
+        <v>-3324132.878748567</v>
+      </c>
+      <c r="G99" t="n">
+        <v>191.3395858026252</v>
       </c>
     </row>
     <row r="100">
@@ -2442,7 +2741,10 @@
         <v>201.0264210468513</v>
       </c>
       <c r="F100" t="n">
-        <v>-398537867.9998899</v>
+        <v>-3424567.599890174</v>
+      </c>
+      <c r="G100" t="n">
+        <v>191.5898244994829</v>
       </c>
     </row>
     <row r="101">
@@ -2462,7 +2764,10 @@
         <v>201.5696474302078</v>
       </c>
       <c r="F101" t="n">
-        <v>-409041974.1248888</v>
+        <v>-3525280.724889053</v>
+      </c>
+      <c r="G101" t="n">
+        <v>191.8415075635412</v>
       </c>
     </row>
     <row r="102">
@@ -2482,7 +2787,10 @@
         <v>202.0992882102802</v>
       </c>
       <c r="F102" t="n">
-        <v>-419546351.7642053</v>
+        <v>-3626265.364205605</v>
+      </c>
+      <c r="G102" t="n">
+        <v>192.0941821902802</v>
       </c>
     </row>
   </sheetData>

--- a/res/thermodynamic_properties_h.xlsx
+++ b/res/thermodynamic_properties_h.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Heat Capacity (Cp)</t>
+          <t>Experimental Cp</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,22 +451,32 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Fitted Enthalpy (H)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Enthalpy (H)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Entropy (S)</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Gibbs Potential</t>
+          <t>Experimental Entropy (S)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phi (Ф)</t>
+          <t>Fitted Entropy (S)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Experimental Phi (Φ)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Fitted Phi (Φ)</t>
         </is>
       </c>
     </row>
@@ -478,19 +488,25 @@
         <v>20.786</v>
       </c>
       <c r="C2" t="n">
-        <v>20.78600000000008</v>
+        <v>20.78600000000011</v>
       </c>
       <c r="D2" t="n">
         <v>2.079</v>
       </c>
       <c r="E2" t="n">
+        <v>2.079</v>
+      </c>
+      <c r="F2" t="n">
         <v>91.90000000000001</v>
       </c>
-      <c r="F2" t="n">
-        <v>-7111</v>
-      </c>
       <c r="G2" t="n">
-        <v>2231.42921</v>
+        <v>91.90000000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>71.114</v>
+      </c>
+      <c r="I2" t="n">
+        <v>73.13612735999999</v>
       </c>
     </row>
     <row r="3">
@@ -501,19 +517,25 @@
         <v>20.786</v>
       </c>
       <c r="C3" t="n">
-        <v>20.78599999999995</v>
+        <v>20.78599999999989</v>
       </c>
       <c r="D3" t="n">
-        <v>4.157599999999999</v>
+        <v>4.157599999999995</v>
       </c>
       <c r="E3" t="n">
-        <v>106.307758596846</v>
+        <v>4.157</v>
       </c>
       <c r="F3" t="n">
-        <v>-17103.9517193692</v>
+        <v>106.307</v>
       </c>
       <c r="G3" t="n">
-        <v>1165.668970596846</v>
+        <v>106.307757295119</v>
+      </c>
+      <c r="H3" t="n">
+        <v>85.521</v>
+      </c>
+      <c r="I3" t="n">
+        <v>86.46391665511899</v>
       </c>
     </row>
     <row r="4">
@@ -524,19 +546,25 @@
         <v>20.786</v>
       </c>
       <c r="C4" t="n">
-        <v>20.78599999999993</v>
+        <v>20.78599999999987</v>
       </c>
       <c r="D4" t="n">
-        <v>6.197745899999993</v>
+        <v>6.197745899999981</v>
       </c>
       <c r="E4" t="n">
-        <v>114.6071838919554</v>
+        <v>6.197</v>
       </c>
       <c r="F4" t="n">
-        <v>-27972.3859773865</v>
+        <v>114.604</v>
       </c>
       <c r="G4" t="n">
-        <v>818.3806413935487</v>
+        <v>114.6071778438711</v>
+      </c>
+      <c r="H4" t="n">
+        <v>93.821</v>
+      </c>
+      <c r="I4" t="n">
+        <v>94.4078152880569</v>
       </c>
     </row>
     <row r="5">
@@ -547,19 +575,25 @@
         <v>20.786</v>
       </c>
       <c r="C5" t="n">
-        <v>20.78599999999993</v>
+        <v>20.78599999999987</v>
       </c>
       <c r="D5" t="n">
-        <v>6.236199999999992</v>
+        <v>6.236199999999982</v>
       </c>
       <c r="E5" t="n">
-        <v>114.7357612034035</v>
+        <v>6.236</v>
       </c>
       <c r="F5" t="n">
-        <v>-28184.52836102106</v>
+        <v>114.735</v>
       </c>
       <c r="G5" t="n">
-        <v>814.0409738700702</v>
+        <v>114.7357550322553</v>
+      </c>
+      <c r="H5" t="n">
+        <v>93.949</v>
+      </c>
+      <c r="I5" t="n">
+        <v>94.53192505892193</v>
       </c>
     </row>
     <row r="6">
@@ -570,19 +604,25 @@
         <v>20.786</v>
       </c>
       <c r="C6" t="n">
-        <v>20.78599999999992</v>
+        <v>20.78599999999987</v>
       </c>
       <c r="D6" t="n">
-        <v>8.314799999999984</v>
+        <v>8.31479999999997</v>
       </c>
       <c r="E6" t="n">
-        <v>120.7155292346544</v>
+        <v>8.314</v>
       </c>
       <c r="F6" t="n">
-        <v>-39971.4116938618</v>
+        <v>120.715</v>
       </c>
       <c r="G6" t="n">
-        <v>639.9927422346545</v>
+        <v>120.7155145902379</v>
+      </c>
+      <c r="H6" t="n">
+        <v>99.929</v>
+      </c>
+      <c r="I6" t="n">
+        <v>100.3316899502379</v>
       </c>
     </row>
     <row r="7">
@@ -593,19 +633,25 @@
         <v>20.786</v>
       </c>
       <c r="C7" t="n">
-        <v>20.78599999999993</v>
+        <v>20.78599999999988</v>
       </c>
       <c r="D7" t="n">
-        <v>10.39339999999998</v>
+        <v>10.39339999999996</v>
       </c>
       <c r="E7" t="n">
-        <v>125.3538031071828</v>
+        <v>10.393</v>
       </c>
       <c r="F7" t="n">
-        <v>-52283.50155359141</v>
+        <v>125.353</v>
       </c>
       <c r="G7" t="n">
-        <v>536.6142163071828</v>
+        <v>125.3537764478551</v>
+      </c>
+      <c r="H7" t="n">
+        <v>104.567</v>
+      </c>
+      <c r="I7" t="n">
+        <v>104.8619550078551</v>
       </c>
     </row>
     <row r="8">
@@ -616,19 +662,25 @@
         <v>20.786</v>
       </c>
       <c r="C8" t="n">
-        <v>20.78599999999993</v>
+        <v>20.7859999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>12.47199999999997</v>
+        <v>12.47199999999995</v>
       </c>
       <c r="E8" t="n">
-        <v>129.1435545128678</v>
+        <v>12.472</v>
       </c>
       <c r="F8" t="n">
-        <v>-65014.13270772072</v>
+        <v>129.143</v>
       </c>
       <c r="G8" t="n">
-        <v>468.3927678462012</v>
+        <v>129.1435123273742</v>
+      </c>
+      <c r="H8" t="n">
+        <v>108.357</v>
+      </c>
+      <c r="I8" t="n">
+        <v>108.5796930207075</v>
       </c>
     </row>
     <row r="9">
@@ -639,19 +691,25 @@
         <v>20.786</v>
       </c>
       <c r="C9" t="n">
-        <v>20.78599999999994</v>
+        <v>20.78599999999991</v>
       </c>
       <c r="D9" t="n">
-        <v>14.55059999999997</v>
+        <v>14.55059999999994</v>
       </c>
       <c r="E9" t="n">
-        <v>132.3477495657804</v>
+        <v>14.55</v>
       </c>
       <c r="F9" t="n">
-        <v>-78092.82469604633</v>
+        <v>132.347</v>
       </c>
       <c r="G9" t="n">
-        <v>420.1603915657805</v>
+        <v>132.3476883582636</v>
+      </c>
+      <c r="H9" t="n">
+        <v>111.561</v>
+      </c>
+      <c r="I9" t="n">
+        <v>111.7324420039779</v>
       </c>
     </row>
     <row r="10">
@@ -662,19 +720,25 @@
         <v>20.786</v>
       </c>
       <c r="C10" t="n">
-        <v>20.78599999999994</v>
+        <v>20.78599999999992</v>
       </c>
       <c r="D10" t="n">
-        <v>16.62919999999996</v>
+        <v>16.62919999999993</v>
       </c>
       <c r="E10" t="n">
-        <v>135.123355602267</v>
+        <v>16.629</v>
       </c>
       <c r="F10" t="n">
-        <v>-91469.48448181365</v>
+        <v>135.123</v>
       </c>
       <c r="G10" t="n">
-        <v>384.358569102267</v>
+        <v>135.1232718853568</v>
+      </c>
+      <c r="H10" t="n">
+        <v>114.337</v>
+      </c>
+      <c r="I10" t="n">
+        <v>114.4694552453569</v>
       </c>
     </row>
     <row r="11">
@@ -685,19 +749,25 @@
         <v>20.786</v>
       </c>
       <c r="C11" t="n">
-        <v>20.78599999999995</v>
+        <v>20.78599999999994</v>
       </c>
       <c r="D11" t="n">
-        <v>18.70779999999996</v>
+        <v>18.70779999999992</v>
       </c>
       <c r="E11" t="n">
-        <v>137.5716197731485</v>
+        <v>18.707</v>
       </c>
       <c r="F11" t="n">
-        <v>-105106.6577958337</v>
+        <v>137.571</v>
       </c>
       <c r="G11" t="n">
-        <v>356.8021666620375</v>
+        <v>137.5715100645104</v>
+      </c>
+      <c r="H11" t="n">
+        <v>116.785</v>
+      </c>
+      <c r="I11" t="n">
+        <v>116.8876943133994</v>
       </c>
     </row>
     <row r="12">
@@ -708,19 +778,25 @@
         <v>20.786</v>
       </c>
       <c r="C12" t="n">
-        <v>20.78599999999996</v>
+        <v>20.78599999999995</v>
       </c>
       <c r="D12" t="n">
-        <v>20.78639999999995</v>
+        <v>20.78639999999991</v>
       </c>
       <c r="E12" t="n">
-        <v>139.7616729225004</v>
+        <v>20.786</v>
       </c>
       <c r="F12" t="n">
-        <v>-118975.2729225005</v>
+        <v>139.761</v>
       </c>
       <c r="G12" t="n">
-        <v>334.9884865225005</v>
+        <v>139.761533742974</v>
+      </c>
+      <c r="H12" t="n">
+        <v>118.975</v>
+      </c>
+      <c r="I12" t="n">
+        <v>119.053718702974</v>
       </c>
     </row>
     <row r="13">
@@ -734,16 +810,22 @@
         <v>20.78599999999996</v>
       </c>
       <c r="D13" t="n">
-        <v>22.86499999999995</v>
+        <v>22.86499999999991</v>
       </c>
       <c r="E13" t="n">
-        <v>141.7428232678582</v>
+        <v>22.865</v>
       </c>
       <c r="F13" t="n">
-        <v>-133052.105594644</v>
+        <v>141.742</v>
       </c>
       <c r="G13" t="n">
-        <v>317.3302187224037</v>
+        <v>141.7426511403867</v>
+      </c>
+      <c r="H13" t="n">
+        <v>120.956</v>
+      </c>
+      <c r="I13" t="n">
+        <v>121.0152003185686</v>
       </c>
     </row>
     <row r="14">
@@ -754,19 +836,25 @@
         <v>20.786</v>
       </c>
       <c r="C14" t="n">
-        <v>20.78599999999996</v>
+        <v>20.78599999999998</v>
       </c>
       <c r="D14" t="n">
-        <v>24.94359999999994</v>
+        <v>24.9435999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>143.5514781735114</v>
+        <v>24.943</v>
       </c>
       <c r="F14" t="n">
-        <v>-147318.1738082137</v>
+        <v>143.551</v>
       </c>
       <c r="G14" t="n">
-        <v>302.7726918401781</v>
+        <v>143.5512696224932</v>
+      </c>
+      <c r="H14" t="n">
+        <v>122.765</v>
+      </c>
+      <c r="I14" t="n">
+        <v>122.8074556491599</v>
       </c>
     </row>
     <row r="15">
@@ -777,19 +865,25 @@
         <v>20.786</v>
       </c>
       <c r="C15" t="n">
-        <v>20.78599999999997</v>
+        <v>20.78599999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>27.02219999999994</v>
+        <v>27.02219999999991</v>
       </c>
       <c r="E15" t="n">
-        <v>145.2152857933175</v>
+        <v>27.022</v>
       </c>
       <c r="F15" t="n">
-        <v>-161757.6715313129</v>
+        <v>145.215</v>
       </c>
       <c r="G15" t="n">
-        <v>290.5881917933176</v>
+        <v>145.2150373441953</v>
+      </c>
+      <c r="H15" t="n">
+        <v>124.429</v>
+      </c>
+      <c r="I15" t="n">
+        <v>124.4573776272722</v>
       </c>
     </row>
     <row r="16">
@@ -800,19 +894,25 @@
         <v>20.786</v>
       </c>
       <c r="C16" t="n">
-        <v>20.78599999999998</v>
+        <v>20.78599999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>29.10079999999993</v>
+        <v>29.1007999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>146.755737474391</v>
+        <v>29.1</v>
       </c>
       <c r="F16" t="n">
-        <v>-176357.2324641475</v>
+        <v>146.755</v>
       </c>
       <c r="G16" t="n">
-        <v>280.2586654743911</v>
+        <v>146.7554456533825</v>
+      </c>
+      <c r="H16" t="n">
+        <v>125.969</v>
+      </c>
+      <c r="I16" t="n">
+        <v>125.9859181562397</v>
       </c>
     </row>
     <row r="17">
@@ -823,19 +923,25 @@
         <v>20.786</v>
       </c>
       <c r="C17" t="n">
-        <v>20.78599999999998</v>
+        <v>20.786</v>
       </c>
       <c r="D17" t="n">
-        <v>31.17939999999993</v>
+        <v>31.1793999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>148.1898701461941</v>
+        <v>31.179</v>
       </c>
       <c r="F17" t="n">
-        <v>-191105.4052192912</v>
+        <v>148.189</v>
       </c>
       <c r="G17" t="n">
-        <v>271.4054838795275</v>
+        <v>148.1895314801103</v>
+      </c>
+      <c r="H17" t="n">
+        <v>127.403</v>
+      </c>
+      <c r="I17" t="n">
+        <v>127.4097185734437</v>
       </c>
     </row>
     <row r="18">
@@ -846,19 +952,25 @@
         <v>20.786</v>
       </c>
       <c r="C18" t="n">
-        <v>20.78599999999998</v>
+        <v>20.78600000000002</v>
       </c>
       <c r="D18" t="n">
-        <v>33.25799999999992</v>
+        <v>33.2579999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>149.5314181643571</v>
+        <v>33.258</v>
       </c>
       <c r="F18" t="n">
-        <v>-205992.2690629713</v>
+        <v>149.531</v>
       </c>
       <c r="G18" t="n">
-        <v>263.7456319143571</v>
+        <v>149.5310291804759</v>
+      </c>
+      <c r="H18" t="n">
+        <v>128.745</v>
+      </c>
+      <c r="I18" t="n">
+        <v>128.7422165404759</v>
       </c>
     </row>
     <row r="19">
@@ -869,19 +981,25 @@
         <v>20.786</v>
       </c>
       <c r="C19" t="n">
-        <v>20.78599999999999</v>
+        <v>20.78600000000002</v>
       </c>
       <c r="D19" t="n">
-        <v>35.33659999999993</v>
+        <v>35.3365999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>150.7916153435752</v>
+        <v>35.336</v>
       </c>
       <c r="F19" t="n">
-        <v>-221009.1460840779</v>
+        <v>150.791</v>
       </c>
       <c r="G19" t="n">
-        <v>257.0634173435752</v>
+        <v>150.7911725695523</v>
+      </c>
+      <c r="H19" t="n">
+        <v>130.005</v>
+      </c>
+      <c r="I19" t="n">
+        <v>129.9944189883758</v>
       </c>
     </row>
     <row r="20">
@@ -892,19 +1010,25 @@
         <v>20.786</v>
       </c>
       <c r="C20" t="n">
-        <v>20.786</v>
+        <v>20.78600000000003</v>
       </c>
       <c r="D20" t="n">
-        <v>37.41519999999993</v>
+        <v>37.41519999999991</v>
       </c>
       <c r="E20" t="n">
-        <v>151.9797673958246</v>
+        <v>37.415</v>
       </c>
       <c r="F20" t="n">
-        <v>-236148.3813124844</v>
+        <v>151.979</v>
       </c>
       <c r="G20" t="n">
-        <v>251.1916478402691</v>
+        <v>151.9792673596295</v>
+      </c>
+      <c r="H20" t="n">
+        <v>131.193</v>
+      </c>
+      <c r="I20" t="n">
+        <v>131.1754551640739</v>
       </c>
     </row>
     <row r="21">
@@ -915,19 +1039,25 @@
         <v>20.786</v>
       </c>
       <c r="C21" t="n">
-        <v>20.786</v>
+        <v>20.78600000000004</v>
       </c>
       <c r="D21" t="n">
-        <v>39.49379999999993</v>
+        <v>39.49379999999991</v>
       </c>
       <c r="E21" t="n">
-        <v>153.1036693910844</v>
+        <v>39.493</v>
       </c>
       <c r="F21" t="n">
-        <v>-251403.1718430604</v>
+        <v>153.103</v>
       </c>
       <c r="G21" t="n">
-        <v>245.9987779174002</v>
+        <v>153.1031086209534</v>
+      </c>
+      <c r="H21" t="n">
+        <v>132.317</v>
+      </c>
+      <c r="I21" t="n">
+        <v>132.2929808230587</v>
       </c>
     </row>
     <row r="22">
@@ -938,19 +1068,25 @@
         <v>20.786</v>
       </c>
       <c r="C22" t="n">
-        <v>20.786</v>
+        <v>20.78600000000004</v>
       </c>
       <c r="D22" t="n">
-        <v>41.57239999999993</v>
+        <v>41.57239999999992</v>
       </c>
       <c r="E22" t="n">
-        <v>154.1699160136907</v>
+        <v>41.572</v>
       </c>
       <c r="F22" t="n">
-        <v>-266767.4320273814</v>
+        <v>154.169</v>
       </c>
       <c r="G22" t="n">
-        <v>241.3799298136907</v>
+        <v>154.169291038093</v>
+      </c>
+      <c r="H22" t="n">
+        <v>133.383</v>
+      </c>
+      <c r="I22" t="n">
+        <v>133.3534791980931</v>
       </c>
     </row>
     <row r="23">
@@ -961,19 +1097,25 @@
         <v>20.786</v>
       </c>
       <c r="C23" t="n">
-        <v>20.786</v>
+        <v>20.78600000000005</v>
       </c>
       <c r="D23" t="n">
-        <v>43.65099999999993</v>
+        <v>43.65099999999992</v>
       </c>
       <c r="E23" t="n">
-        <v>155.1841360429068</v>
+        <v>43.651</v>
       </c>
       <c r="F23" t="n">
-        <v>-282235.6856901043</v>
+        <v>155.183</v>
       </c>
       <c r="G23" t="n">
-        <v>237.2504927095735</v>
+        <v>155.1834433905189</v>
+      </c>
+      <c r="H23" t="n">
+        <v>134.397</v>
+      </c>
+      <c r="I23" t="n">
+        <v>134.362488845757</v>
       </c>
     </row>
     <row r="24">
@@ -984,19 +1126,25 @@
         <v>20.786</v>
       </c>
       <c r="C24" t="n">
-        <v>20.78600000000001</v>
+        <v>20.78600000000005</v>
       </c>
       <c r="D24" t="n">
         <v>45.72959999999993</v>
       </c>
       <c r="E24" t="n">
-        <v>156.1511722358193</v>
+        <v>45.729</v>
       </c>
       <c r="F24" t="n">
-        <v>-297802.9789188025</v>
+        <v>156.15</v>
       </c>
       <c r="G24" t="n">
-        <v>233.541476963092</v>
+        <v>156.1504084355058</v>
+      </c>
+      <c r="H24" t="n">
+        <v>135.364</v>
+      </c>
+      <c r="I24" t="n">
+        <v>135.3247787045967</v>
       </c>
     </row>
     <row r="25">
@@ -1007,19 +1155,25 @@
         <v>20.786</v>
       </c>
       <c r="C25" t="n">
-        <v>20.78600000000001</v>
+        <v>20.78600000000006</v>
       </c>
       <c r="D25" t="n">
-        <v>47.80819999999994</v>
+        <v>47.80819999999993</v>
       </c>
       <c r="E25" t="n">
-        <v>157.0752211915031</v>
+        <v>47.808</v>
       </c>
       <c r="F25" t="n">
-        <v>-313464.8087404573</v>
+        <v>157.074</v>
       </c>
       <c r="G25" t="n">
-        <v>230.1960871915032</v>
+        <v>157.0743827723031</v>
+      </c>
+      <c r="H25" t="n">
+        <v>136.288</v>
+      </c>
+      <c r="I25" t="n">
+        <v>136.2444843931727</v>
       </c>
     </row>
     <row r="26">
@@ -1030,19 +1184,25 @@
         <v>20.786</v>
       </c>
       <c r="C26" t="n">
-        <v>20.78600000000002</v>
+        <v>20.78600000000006</v>
       </c>
       <c r="D26" t="n">
         <v>49.88679999999994</v>
       </c>
       <c r="E26" t="n">
-        <v>157.9599434264957</v>
+        <v>49.886</v>
       </c>
       <c r="F26" t="n">
-        <v>-329217.0642235898</v>
+        <v>157.959</v>
       </c>
       <c r="G26" t="n">
-        <v>227.1671572598291</v>
+        <v>157.9590269176122</v>
+      </c>
+      <c r="H26" t="n">
+        <v>137.173</v>
+      </c>
+      <c r="I26" t="n">
+        <v>137.1252156109456</v>
       </c>
     </row>
     <row r="27">
@@ -1053,19 +1213,25 @@
         <v>20.786</v>
       </c>
       <c r="C27" t="n">
-        <v>20.78600000000002</v>
+        <v>20.78600000000007</v>
       </c>
       <c r="D27" t="n">
-        <v>51.96539999999993</v>
+        <v>51.96539999999995</v>
       </c>
       <c r="E27" t="n">
-        <v>158.8085509649176</v>
+        <v>51.965</v>
       </c>
       <c r="F27" t="n">
-        <v>-345055.977412294</v>
+        <v>158.807</v>
       </c>
       <c r="G27" t="n">
-        <v>224.4152048049176</v>
+        <v>158.8075528957102</v>
+      </c>
+      <c r="H27" t="n">
+        <v>138.021</v>
+      </c>
+      <c r="I27" t="n">
+        <v>137.9701416957102</v>
       </c>
     </row>
     <row r="28">
@@ -1076,19 +1242,25 @@
         <v>20.786</v>
       </c>
       <c r="C28" t="n">
-        <v>20.78600000000003</v>
+        <v>20.78600000000007</v>
       </c>
       <c r="D28" t="n">
-        <v>54.04399999999993</v>
+        <v>54.04399999999995</v>
       </c>
       <c r="E28" t="n">
-        <v>159.6238777393346</v>
+        <v>54.044</v>
       </c>
       <c r="F28" t="n">
-        <v>-360978.0821222701</v>
+        <v>159.623</v>
       </c>
       <c r="G28" t="n">
-        <v>221.9069377393346</v>
+        <v>159.6227946393143</v>
+      </c>
+      <c r="H28" t="n">
+        <v>138.837</v>
+      </c>
+      <c r="I28" t="n">
+        <v>138.7820604608528</v>
       </c>
     </row>
     <row r="29">
@@ -1099,19 +1271,25 @@
         <v>20.786</v>
       </c>
       <c r="C29" t="n">
-        <v>20.78600000000003</v>
+        <v>20.78600000000007</v>
       </c>
       <c r="D29" t="n">
-        <v>56.12259999999994</v>
+        <v>56.12259999999996</v>
       </c>
       <c r="E29" t="n">
-        <v>160.4084366979405</v>
+        <v>56.122</v>
       </c>
       <c r="F29" t="n">
-        <v>-376980.1790844394</v>
+        <v>160.407</v>
       </c>
       <c r="G29" t="n">
-        <v>219.6140949942368</v>
+        <v>160.4072650967658</v>
+      </c>
+      <c r="H29" t="n">
+        <v>139.621</v>
+      </c>
+      <c r="I29" t="n">
+        <v>139.5634540863954</v>
       </c>
     </row>
     <row r="30">
@@ -1122,19 +1300,25 @@
         <v>20.786</v>
       </c>
       <c r="C30" t="n">
-        <v>20.78600000000003</v>
+        <v>20.78600000000007</v>
       </c>
       <c r="D30" t="n">
-        <v>58.20119999999994</v>
+        <v>58.20119999999996</v>
       </c>
       <c r="E30" t="n">
-        <v>161.1644665210267</v>
+        <v>58.201</v>
       </c>
       <c r="F30" t="n">
-        <v>-393059.3062588747</v>
+        <v>161.163</v>
       </c>
       <c r="G30" t="n">
-        <v>217.5125375210267</v>
+        <v>161.1632029485016</v>
+      </c>
+      <c r="H30" t="n">
+        <v>140.377</v>
+      </c>
+      <c r="I30" t="n">
+        <v>140.3165348799302</v>
       </c>
     </row>
     <row r="31">
@@ -1145,19 +1329,25 @@
         <v>20.786</v>
       </c>
       <c r="C31" t="n">
-        <v>20.78600000000003</v>
+        <v>20.78600000000008</v>
       </c>
       <c r="D31" t="n">
-        <v>60.27979999999994</v>
+        <v>60.27979999999997</v>
       </c>
       <c r="E31" t="n">
-        <v>161.8939701360258</v>
+        <v>60.279</v>
       </c>
       <c r="F31" t="n">
-        <v>-409212.7133944749</v>
+        <v>161.892</v>
       </c>
       <c r="G31" t="n">
-        <v>215.581528825681</v>
+        <v>161.8926111220987</v>
+      </c>
+      <c r="H31" t="n">
+        <v>141.106</v>
+      </c>
+      <c r="I31" t="n">
+        <v>141.0432830338228</v>
       </c>
     </row>
     <row r="32">
@@ -1168,19 +1358,25 @@
         <v>20.786</v>
       </c>
       <c r="C32" t="n">
-        <v>20.78600000000004</v>
+        <v>20.78600000000007</v>
       </c>
       <c r="D32" t="n">
-        <v>62.35839999999996</v>
+        <v>62.35839999999998</v>
       </c>
       <c r="E32" t="n">
-        <v>162.5987467004663</v>
+        <v>62.358</v>
       </c>
       <c r="F32" t="n">
-        <v>-425437.8401013989</v>
+        <v>162.597</v>
       </c>
       <c r="G32" t="n">
-        <v>213.8031605671329</v>
+        <v>162.5972887752294</v>
+      </c>
+      <c r="H32" t="n">
+        <v>141.811</v>
+      </c>
+      <c r="I32" t="n">
+        <v>141.7454780018961</v>
       </c>
     </row>
     <row r="33">
@@ -1191,19 +1387,25 @@
         <v>20.786</v>
       </c>
       <c r="C33" t="n">
-        <v>20.78600000000004</v>
+        <v>20.78600000000007</v>
       </c>
       <c r="D33" t="n">
-        <v>64.43699999999995</v>
+        <v>64.437</v>
       </c>
       <c r="E33" t="n">
-        <v>163.2804183387379</v>
+        <v>64.437</v>
       </c>
       <c r="F33" t="n">
-        <v>-441732.2968500877</v>
+        <v>163.279</v>
       </c>
       <c r="G33" t="n">
-        <v>212.1618902742218</v>
+        <v>163.278858032428</v>
+      </c>
+      <c r="H33" t="n">
+        <v>142.493</v>
+      </c>
+      <c r="I33" t="n">
+        <v>142.4247247472668</v>
       </c>
     </row>
     <row r="34">
@@ -1214,19 +1416,25 @@
         <v>20.786</v>
       </c>
       <c r="C34" t="n">
-        <v>20.78600000000004</v>
+        <v>20.78600000000007</v>
       </c>
       <c r="D34" t="n">
-        <v>66.51559999999995</v>
+        <v>66.51559999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>163.9404526325956</v>
+        <v>66.515</v>
       </c>
       <c r="F34" t="n">
-        <v>-458093.848424306</v>
+        <v>163.939</v>
       </c>
       <c r="G34" t="n">
-        <v>210.6441665075956</v>
+        <v>163.938786475595</v>
+      </c>
+      <c r="H34" t="n">
+        <v>143.153</v>
+      </c>
+      <c r="I34" t="n">
+        <v>143.0824758355949</v>
       </c>
     </row>
     <row r="35">
@@ -1237,19 +1445,25 @@
         <v>20.786</v>
       </c>
       <c r="C35" t="n">
-        <v>20.78600000000004</v>
+        <v>20.78600000000007</v>
       </c>
       <c r="D35" t="n">
-        <v>68.59419999999996</v>
+        <v>68.59420000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>164.5801816498045</v>
+        <v>68.59399999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>-474520.399444355</v>
+        <v>164.578</v>
       </c>
       <c r="G35" t="n">
-        <v>209.2381228013197</v>
+        <v>164.5784061726421</v>
+      </c>
+      <c r="H35" t="n">
+        <v>143.792</v>
+      </c>
+      <c r="I35" t="n">
+        <v>143.7200501387027</v>
       </c>
     </row>
     <row r="36">
@@ -1260,19 +1474,25 @@
         <v>20.786</v>
       </c>
       <c r="C36" t="n">
-        <v>20.78600000000004</v>
+        <v>20.78600000000007</v>
       </c>
       <c r="D36" t="n">
-        <v>70.67279999999997</v>
+        <v>70.67280000000002</v>
       </c>
       <c r="E36" t="n">
-        <v>165.2008181313178</v>
+        <v>70.672</v>
       </c>
       <c r="F36" t="n">
-        <v>-491009.9816464804</v>
+        <v>165.199</v>
       </c>
       <c r="G36" t="n">
-        <v>207.9333261313178</v>
+        <v>165.1989298646714</v>
+      </c>
+      <c r="H36" t="n">
+        <v>144.413</v>
+      </c>
+      <c r="I36" t="n">
+        <v>144.3386487540831</v>
       </c>
     </row>
     <row r="37">
@@ -1283,19 +1503,25 @@
         <v>20.786</v>
       </c>
       <c r="C37" t="n">
-        <v>20.78600000000005</v>
+        <v>20.78600000000007</v>
       </c>
       <c r="D37" t="n">
-        <v>72.75139999999996</v>
+        <v>72.7514</v>
       </c>
       <c r="E37" t="n">
-        <v>165.8034693314205</v>
+        <v>72.751</v>
       </c>
       <c r="F37" t="n">
-        <v>-507560.7426599716</v>
+        <v>165.801</v>
       </c>
       <c r="G37" t="n">
-        <v>206.7205689314205</v>
+        <v>165.8014648061188</v>
+      </c>
+      <c r="H37" t="n">
+        <v>145.015</v>
+      </c>
+      <c r="I37" t="n">
+        <v>144.9393686232617</v>
       </c>
     </row>
     <row r="38">
@@ -1306,19 +1532,25 @@
         <v>20.786</v>
       </c>
       <c r="C38" t="n">
-        <v>20.78600000000004</v>
+        <v>20.78600000000007</v>
       </c>
       <c r="D38" t="n">
-        <v>74.82999999999997</v>
+        <v>74.83000000000003</v>
       </c>
       <c r="E38" t="n">
-        <v>166.3891489077235</v>
+        <v>74.83</v>
       </c>
       <c r="F38" t="n">
-        <v>-524170.9360678047</v>
+        <v>166.387</v>
       </c>
       <c r="G38" t="n">
-        <v>205.5916961299458</v>
+        <v>166.3870246547485</v>
+      </c>
+      <c r="H38" t="n">
+        <v>145.601</v>
+      </c>
+      <c r="I38" t="n">
+        <v>145.5232142369707</v>
       </c>
     </row>
     <row r="39">
@@ -1329,19 +1561,25 @@
         <v>20.786</v>
       </c>
       <c r="C39" t="n">
-        <v>20.78600000000005</v>
+        <v>20.78600000000007</v>
       </c>
       <c r="D39" t="n">
-        <v>76.90859999999999</v>
+        <v>76.90860000000004</v>
       </c>
       <c r="E39" t="n">
-        <v>166.958787181733</v>
+        <v>76.908</v>
       </c>
       <c r="F39" t="n">
-        <v>-540838.9125724119</v>
+        <v>166.956</v>
       </c>
       <c r="G39" t="n">
-        <v>204.5394605330843</v>
+        <v>166.9565397322227</v>
+      </c>
+      <c r="H39" t="n">
+        <v>146.17</v>
+      </c>
+      <c r="I39" t="n">
+        <v>146.0911077408714</v>
       </c>
     </row>
     <row r="40">
@@ -1352,19 +1590,25 @@
         <v>20.786</v>
       </c>
       <c r="C40" t="n">
-        <v>20.78600000000005</v>
+        <v>20.78600000000007</v>
       </c>
       <c r="D40" t="n">
-        <v>78.98719999999999</v>
+        <v>78.98720000000003</v>
       </c>
       <c r="E40" t="n">
-        <v>167.5132400308212</v>
+        <v>78.98699999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>-557563.1121171206</v>
+        <v>167.511</v>
       </c>
       <c r="G40" t="n">
-        <v>203.5574012939791</v>
+        <v>167.5108659160725</v>
+      </c>
+      <c r="H40" t="n">
+        <v>146.725</v>
+      </c>
+      <c r="I40" t="n">
+        <v>146.6438976971251</v>
       </c>
     </row>
     <row r="41">
@@ -1375,19 +1619,25 @@
         <v>20.786</v>
       </c>
       <c r="C41" t="n">
-        <v>20.78600000000005</v>
+        <v>20.78600000000006</v>
       </c>
       <c r="D41" t="n">
-        <v>81.06579999999998</v>
+        <v>81.06580000000007</v>
       </c>
       <c r="E41" t="n">
-        <v>168.0532966249791</v>
+        <v>81.065</v>
       </c>
       <c r="F41" t="n">
-        <v>-574342.0568374186</v>
+        <v>168.05</v>
       </c>
       <c r="G41" t="n">
-        <v>202.6397412916458</v>
+        <v>168.0507923764506</v>
+      </c>
+      <c r="H41" t="n">
+        <v>147.265</v>
+      </c>
+      <c r="I41" t="n">
+        <v>147.1823667108096</v>
       </c>
     </row>
     <row r="42">
@@ -1398,19 +1648,25 @@
         <v>20.786</v>
       </c>
       <c r="C42" t="n">
-        <v>20.78600000000005</v>
+        <v>20.78600000000006</v>
       </c>
       <c r="D42" t="n">
-        <v>83.14439999999999</v>
+        <v>83.14440000000005</v>
       </c>
       <c r="E42" t="n">
-        <v>168.5796861838967</v>
+        <v>83.14400000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>-591174.3447355866</v>
+        <v>168.577</v>
       </c>
       <c r="G42" t="n">
-        <v>201.7813000838966</v>
+        <v>168.5770483332121</v>
+      </c>
+      <c r="H42" t="n">
+        <v>147.791</v>
+      </c>
+      <c r="I42" t="n">
+        <v>147.7072380932121</v>
       </c>
     </row>
     <row r="43">
@@ -1424,16 +1680,22 @@
         <v>20.78600000000005</v>
       </c>
       <c r="D43" t="n">
+        <v>85.22300000000006</v>
+      </c>
+      <c r="E43" t="n">
         <v>85.223</v>
       </c>
-      <c r="E43" t="n">
-        <v>169.0930838995642</v>
-      </c>
       <c r="F43" t="n">
-        <v>-608058.6439882134</v>
+        <v>169.09</v>
       </c>
       <c r="G43" t="n">
-        <v>200.9774197532228</v>
+        <v>169.0903089785156</v>
+      </c>
+      <c r="H43" t="n">
+        <v>148.304</v>
+      </c>
+      <c r="I43" t="n">
+        <v>148.2191817043692</v>
       </c>
     </row>
     <row r="44">
@@ -1447,16 +1709,22 @@
         <v>20.78600000000005</v>
       </c>
       <c r="D44" t="n">
-        <v>87.30160000000001</v>
+        <v>87.30160000000006</v>
       </c>
       <c r="E44" t="n">
-        <v>169.5941161450872</v>
+        <v>87.301</v>
       </c>
       <c r="F44" t="n">
-        <v>-624993.687809366</v>
+        <v>169.591</v>
       </c>
       <c r="G44" t="n">
-        <v>200.2239014784205</v>
+        <v>169.5912006856379</v>
+      </c>
+      <c r="H44" t="n">
+        <v>148.805</v>
+      </c>
+      <c r="I44" t="n">
+        <v>148.718819093257</v>
       </c>
     </row>
     <row r="45">
@@ -1470,16 +1738,22 @@
         <v>20.78600000000005</v>
       </c>
       <c r="D45" t="n">
-        <v>89.38020000000002</v>
+        <v>89.38020000000007</v>
       </c>
       <c r="E45" t="n">
-        <v>170.0833650705173</v>
+        <v>89.38</v>
       </c>
       <c r="F45" t="n">
-        <v>-641978.2698032246</v>
+        <v>170.08</v>
       </c>
       <c r="G45" t="n">
-        <v>199.5169510705173</v>
+        <v>170.0803056048062</v>
+      </c>
+      <c r="H45" t="n">
+        <v>149.294</v>
+      </c>
+      <c r="I45" t="n">
+        <v>149.2067280345737</v>
       </c>
     </row>
     <row r="46">
@@ -1490,19 +1764,25 @@
         <v>20.786</v>
       </c>
       <c r="C46" t="n">
-        <v>20.78600000000005</v>
+        <v>20.78600000000004</v>
       </c>
       <c r="D46" t="n">
-        <v>91.4588</v>
+        <v>91.45880000000007</v>
       </c>
       <c r="E46" t="n">
-        <v>170.5613726702806</v>
+        <v>91.458</v>
       </c>
       <c r="F46" t="n">
-        <v>-659011.2397492345</v>
+        <v>170.558</v>
       </c>
       <c r="G46" t="n">
-        <v>198.8531320339169</v>
+        <v>170.5581657306248</v>
+      </c>
+      <c r="H46" t="n">
+        <v>149.772</v>
+      </c>
+      <c r="I46" t="n">
+        <v>149.6834465451703</v>
       </c>
     </row>
     <row r="47">
@@ -1513,19 +1793,25 @@
         <v>20.786</v>
       </c>
       <c r="C47" t="n">
-        <v>20.78600000000005</v>
+        <v>20.78600000000004</v>
       </c>
       <c r="D47" t="n">
-        <v>93.53740000000002</v>
+        <v>93.53740000000006</v>
       </c>
       <c r="E47" t="n">
-        <v>171.0286443934667</v>
+        <v>93.53700000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>-676091.4997706</v>
+        <v>171.025</v>
       </c>
       <c r="G47" t="n">
-        <v>198.2293249712444</v>
+        <v>171.0252865123657</v>
+      </c>
+      <c r="H47" t="n">
+        <v>150.239</v>
+      </c>
+      <c r="I47" t="n">
+        <v>150.1494764501435</v>
       </c>
     </row>
     <row r="48">
@@ -1536,19 +1822,25 @@
         <v>20.786</v>
       </c>
       <c r="C48" t="n">
-        <v>20.78600000000006</v>
+        <v>20.78600000000003</v>
       </c>
       <c r="D48" t="n">
-        <v>95.61600000000003</v>
+        <v>95.61600000000007</v>
       </c>
       <c r="E48" t="n">
-        <v>171.4856523572831</v>
+        <v>95.616</v>
       </c>
       <c r="F48" t="n">
-        <v>-693218.0008435021</v>
+        <v>171.482</v>
       </c>
       <c r="G48" t="n">
-        <v>197.6426923572831</v>
+        <v>171.4821400674222</v>
+      </c>
+      <c r="H48" t="n">
+        <v>150.696</v>
+      </c>
+      <c r="I48" t="n">
+        <v>150.605286557857</v>
       </c>
     </row>
     <row r="49">
@@ -1559,19 +1851,25 @@
         <v>20.786</v>
       </c>
       <c r="C49" t="n">
-        <v>20.78600000000005</v>
+        <v>20.78600000000003</v>
       </c>
       <c r="D49" t="n">
-        <v>97.69460000000004</v>
+        <v>97.69460000000008</v>
       </c>
       <c r="E49" t="n">
-        <v>171.9328382148911</v>
+        <v>97.694</v>
       </c>
       <c r="F49" t="n">
-        <v>-710389.7396099884</v>
+        <v>171.929</v>
       </c>
       <c r="G49" t="n">
-        <v>197.0906478744656</v>
+        <v>171.9291680491451</v>
+      </c>
+      <c r="H49" t="n">
+        <v>151.143</v>
+      </c>
+      <c r="I49" t="n">
+        <v>151.0513154942515</v>
       </c>
     </row>
     <row r="50">
@@ -1582,19 +1880,25 @@
         <v>20.786</v>
       </c>
       <c r="C50" t="n">
-        <v>20.78600000000005</v>
+        <v>20.78600000000002</v>
       </c>
       <c r="D50" t="n">
-        <v>99.77320000000005</v>
+        <v>99.77320000000009</v>
       </c>
       <c r="E50" t="n">
-        <v>172.3706157212944</v>
+        <v>99.773</v>
       </c>
       <c r="F50" t="n">
-        <v>-727605.7554622132</v>
+        <v>172.366</v>
       </c>
       <c r="G50" t="n">
-        <v>196.5708296379611</v>
+        <v>172.3667842127313</v>
+      </c>
+      <c r="H50" t="n">
+        <v>151.581</v>
+      </c>
+      <c r="I50" t="n">
+        <v>151.487974239398</v>
       </c>
     </row>
     <row r="51">
@@ -1605,19 +1909,25 @@
         <v>20.786</v>
       </c>
       <c r="C51" t="n">
-        <v>20.78600000000006</v>
+        <v>20.78600000000002</v>
       </c>
       <c r="D51" t="n">
-        <v>101.8518</v>
+        <v>101.8518000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>172.7993730346426</v>
+        <v>101.852</v>
       </c>
       <c r="F51" t="n">
-        <v>-744865.1278697485</v>
+        <v>172.795</v>
       </c>
       <c r="G51" t="n">
-        <v>196.0810767489283</v>
+        <v>172.7953767165273</v>
+      </c>
+      <c r="H51" t="n">
+        <v>152.009</v>
+      </c>
+      <c r="I51" t="n">
+        <v>151.9156484030579</v>
       </c>
     </row>
     <row r="52">
@@ -1628,19 +1938,25 @@
         <v>20.786</v>
       </c>
       <c r="C52" t="n">
-        <v>20.78600000000006</v>
+        <v>20.78600000000002</v>
       </c>
       <c r="D52" t="n">
-        <v>103.9304</v>
+        <v>103.9304000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>173.2194747850308</v>
+        <v>103.93</v>
       </c>
       <c r="F52" t="n">
-        <v>-762166.9739251538</v>
+        <v>173.215</v>
       </c>
       <c r="G52" t="n">
-        <v>195.6194087050308</v>
+        <v>173.2153101908293</v>
+      </c>
+      <c r="H52" t="n">
+        <v>152.429</v>
+      </c>
+      <c r="I52" t="n">
+        <v>152.3347002708293</v>
       </c>
     </row>
     <row r="53">
@@ -1651,19 +1967,25 @@
         <v>20.786</v>
       </c>
       <c r="C53" t="n">
-        <v>20.78600000000005</v>
+        <v>20.78600000000001</v>
       </c>
       <c r="D53" t="n">
         <v>106.0090000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>173.6312639384249</v>
+        <v>106.009</v>
       </c>
       <c r="F53" t="n">
-        <v>-779510.446085967</v>
+        <v>173.627</v>
       </c>
       <c r="G53" t="n">
-        <v>195.1840072717582</v>
+        <v>173.6269276018077</v>
+      </c>
+      <c r="H53" t="n">
+        <v>152.841</v>
+      </c>
+      <c r="I53" t="n">
+        <v>152.7454706480822</v>
       </c>
     </row>
     <row r="54">
@@ -1674,19 +1996,25 @@
         <v>20.786</v>
       </c>
       <c r="C54" t="n">
-        <v>20.78600000000005</v>
+        <v>20.786</v>
       </c>
       <c r="D54" t="n">
         <v>108.0876000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>174.0350634795874</v>
+        <v>108.087</v>
       </c>
       <c r="F54" t="n">
-        <v>-796894.7300938545</v>
+        <v>174.03</v>
       </c>
       <c r="G54" t="n">
-        <v>194.7732004795874</v>
+        <v>174.0305519344334</v>
+      </c>
+      <c r="H54" t="n">
+        <v>153.244</v>
+      </c>
+      <c r="I54" t="n">
+        <v>153.1482805252026</v>
       </c>
     </row>
     <row r="55">
@@ -1697,19 +2025,25 @@
         <v>20.786</v>
       </c>
       <c r="C55" t="n">
-        <v>20.78600000000005</v>
+        <v>20.786</v>
       </c>
       <c r="D55" t="n">
         <v>110.1662000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>174.4311779346937</v>
+        <v>110.166</v>
       </c>
       <c r="F55" t="n">
-        <v>-814319.0430538766</v>
+        <v>174.426</v>
       </c>
       <c r="G55" t="n">
-        <v>194.3854484629956</v>
+        <v>174.4264877150943</v>
+      </c>
+      <c r="H55" t="n">
+        <v>153.64</v>
+      </c>
+      <c r="I55" t="n">
+        <v>153.5434325845283</v>
       </c>
     </row>
     <row r="56">
@@ -1720,19 +2054,25 @@
         <v>20.786</v>
       </c>
       <c r="C56" t="n">
-        <v>20.78600000000005</v>
+        <v>20.786</v>
       </c>
       <c r="D56" t="n">
         <v>112.2448000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>174.8198947516222</v>
+        <v>112.245</v>
       </c>
       <c r="F56" t="n">
-        <v>-831782.6316587598</v>
+        <v>174.815</v>
       </c>
       <c r="G56" t="n">
-        <v>194.0193308997703</v>
+        <v>174.8150223918849</v>
+      </c>
+      <c r="H56" t="n">
+        <v>154.029</v>
+      </c>
+      <c r="I56" t="n">
+        <v>153.9312125666997</v>
       </c>
     </row>
     <row r="57">
@@ -1743,19 +2083,25 @@
         <v>20.786</v>
       </c>
       <c r="C57" t="n">
-        <v>20.78600000000005</v>
+        <v>20.78599999999999</v>
       </c>
       <c r="D57" t="n">
         <v>114.3234000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>175.2014855535895</v>
+        <v>114.323</v>
       </c>
       <c r="F57" t="n">
-        <v>-849284.770544742</v>
+        <v>175.196</v>
       </c>
       <c r="G57" t="n">
-        <v>193.6735358444986</v>
+        <v>175.196427588242</v>
+      </c>
+      <c r="H57" t="n">
+        <v>154.41</v>
+      </c>
+      <c r="I57" t="n">
+        <v>154.3118905118783</v>
       </c>
     </row>
     <row r="58">
@@ -1766,19 +2112,25 @@
         <v>20.786</v>
       </c>
       <c r="C58" t="n">
-        <v>20.78600000000005</v>
+        <v>20.78599999999999</v>
       </c>
       <c r="D58" t="n">
         <v>116.4020000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>175.5762072798265</v>
+        <v>116.402</v>
       </c>
       <c r="F58" t="n">
-        <v>-866824.7607670284</v>
+        <v>175.571</v>
       </c>
       <c r="G58" t="n">
-        <v>193.3468497798265</v>
+        <v>175.5709602436207</v>
+      </c>
+      <c r="H58" t="n">
+        <v>154.785</v>
+      </c>
+      <c r="I58" t="n">
+        <v>154.685721889335</v>
       </c>
     </row>
     <row r="59">
@@ -1789,19 +2141,25 @@
         <v>20.786</v>
       </c>
       <c r="C59" t="n">
-        <v>20.78600000000005</v>
+        <v>20.78599999999998</v>
       </c>
       <c r="D59" t="n">
         <v>118.4806000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>175.9443032252933</v>
+        <v>118.48</v>
       </c>
       <c r="F59" t="n">
-        <v>-884401.9283841714</v>
+        <v>175.939</v>
       </c>
       <c r="G59" t="n">
-        <v>193.0381487340652</v>
+        <v>175.9388636532088</v>
+      </c>
+      <c r="H59" t="n">
+        <v>155.153</v>
+      </c>
+      <c r="I59" t="n">
+        <v>155.0529486272439</v>
       </c>
     </row>
     <row r="60">
@@ -1812,19 +2170,25 @@
         <v>20.786</v>
       </c>
       <c r="C60" t="n">
-        <v>20.78600000000005</v>
+        <v>20.78599999999997</v>
       </c>
       <c r="D60" t="n">
         <v>120.5592000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>176.306003989969</v>
+        <v>120.559</v>
       </c>
       <c r="F60" t="n">
-        <v>-902015.6231418204</v>
+        <v>176.3</v>
       </c>
       <c r="G60" t="n">
-        <v>192.7463903347966</v>
+        <v>176.3003684172177</v>
+      </c>
+      <c r="H60" t="n">
+        <v>155.514</v>
+      </c>
+      <c r="I60" t="n">
+        <v>155.4138000530798</v>
       </c>
     </row>
     <row r="61">
@@ -1835,19 +2199,25 @@
         <v>20.786</v>
       </c>
       <c r="C61" t="n">
-        <v>20.78600000000005</v>
+        <v>20.78599999999997</v>
       </c>
       <c r="D61" t="n">
         <v>122.6378000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>176.6615283469947</v>
+        <v>122.638</v>
       </c>
       <c r="F61" t="n">
-        <v>-919665.2172472687</v>
+        <v>176.655</v>
       </c>
       <c r="G61" t="n">
-        <v>192.4706066859777</v>
+        <v>176.6556933090241</v>
+      </c>
+      <c r="H61" t="n">
+        <v>155.869</v>
+      </c>
+      <c r="I61" t="n">
+        <v>155.7684937537699</v>
       </c>
     </row>
     <row r="62">
@@ -1858,19 +2228,25 @@
         <v>20.786</v>
       </c>
       <c r="C62" t="n">
-        <v>20.78600000000005</v>
+        <v>20.78599999999996</v>
       </c>
       <c r="D62" t="n">
         <v>124.7164000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>177.0110840378508</v>
+        <v>124.716</v>
       </c>
       <c r="F62" t="n">
-        <v>-937350.1042271049</v>
+        <v>177.005</v>
       </c>
       <c r="G62" t="n">
-        <v>192.2098979711841</v>
+        <v>177.0050460703484</v>
+      </c>
+      <c r="H62" t="n">
+        <v>156.219</v>
+      </c>
+      <c r="I62" t="n">
+        <v>156.1172363636818</v>
       </c>
     </row>
     <row r="63">
@@ -1881,19 +2257,25 @@
         <v>20.786</v>
       </c>
       <c r="C63" t="n">
-        <v>20.78600000000004</v>
+        <v>20.78599999999995</v>
       </c>
       <c r="D63" t="n">
         <v>128.8736000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>177.6930695460717</v>
+        <v>128.873</v>
       </c>
       <c r="F63" t="n">
-        <v>-972823.4311856444</v>
+        <v>177.686</v>
       </c>
       <c r="G63" t="n">
-        <v>191.7304125138136</v>
+        <v>177.6866153275471</v>
+      </c>
+      <c r="H63" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="I63" t="n">
+        <v>156.7976443649665</v>
       </c>
     </row>
     <row r="64">
@@ -1904,19 +2286,25 @@
         <v>20.786</v>
       </c>
       <c r="C64" t="n">
-        <v>20.78600000000004</v>
+        <v>20.78599999999994</v>
       </c>
       <c r="D64" t="n">
-        <v>133.0308000000002</v>
+        <v>133.0308000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>178.3534280945337</v>
+        <v>133.031</v>
       </c>
       <c r="F64" t="n">
-        <v>-1008431.139805015</v>
+        <v>178.346</v>
       </c>
       <c r="G64" t="n">
-        <v>191.3018920320336</v>
+        <v>178.346543770714</v>
+      </c>
+      <c r="H64" t="n">
+        <v>157.56</v>
+      </c>
+      <c r="I64" t="n">
+        <v>157.456484130714</v>
       </c>
     </row>
     <row r="65">
@@ -1927,19 +2315,25 @@
         <v>20.786</v>
       </c>
       <c r="C65" t="n">
-        <v>20.78600000000004</v>
+        <v>20.78599999999993</v>
       </c>
       <c r="D65" t="n">
-        <v>137.1880000000002</v>
+        <v>137.188</v>
       </c>
       <c r="E65" t="n">
-        <v>178.9934917490871</v>
+        <v>137.188</v>
       </c>
       <c r="F65" t="n">
-        <v>-1044169.045543975</v>
+        <v>178.986</v>
       </c>
       <c r="G65" t="n">
-        <v>190.9190693248447</v>
+        <v>178.9861634677611</v>
+      </c>
+      <c r="H65" t="n">
+        <v>158.2</v>
+      </c>
+      <c r="I65" t="n">
+        <v>158.0950811307914</v>
       </c>
     </row>
     <row r="66">
@@ -1950,19 +2344,25 @@
         <v>20.786</v>
       </c>
       <c r="C66" t="n">
-        <v>20.78600000000004</v>
+        <v>20.78599999999993</v>
       </c>
       <c r="D66" t="n">
-        <v>141.3452000000001</v>
+        <v>141.3452</v>
       </c>
       <c r="E66" t="n">
-        <v>179.6144732487085</v>
+        <v>141.345</v>
       </c>
       <c r="F66" t="n">
-        <v>-1080033.218091218</v>
+        <v>179.606</v>
       </c>
       <c r="G66" t="n">
-        <v>190.5773342487085</v>
+        <v>179.6066871597904</v>
+      </c>
+      <c r="H66" t="n">
+        <v>158.82</v>
+      </c>
+      <c r="I66" t="n">
+        <v>158.7146422844963</v>
       </c>
     </row>
     <row r="67">
@@ -1973,19 +2373,25 @@
         <v>20.786</v>
       </c>
       <c r="C67" t="n">
-        <v>20.78600000000003</v>
+        <v>20.78599999999992</v>
       </c>
       <c r="D67" t="n">
-        <v>145.5024000000002</v>
+        <v>145.5024</v>
       </c>
       <c r="E67" t="n">
-        <v>180.2174798456447</v>
+        <v>145.502</v>
       </c>
       <c r="F67" t="n">
-        <v>-1116019.958919513</v>
+        <v>180.209</v>
       </c>
       <c r="G67" t="n">
-        <v>190.2726366456447</v>
+        <v>180.2092221012378</v>
+      </c>
+      <c r="H67" t="n">
+        <v>159.423</v>
+      </c>
+      <c r="I67" t="n">
+        <v>159.3162696898092</v>
       </c>
     </row>
     <row r="68">
@@ -1996,19 +2402,25 @@
         <v>20.786</v>
       </c>
       <c r="C68" t="n">
-        <v>20.78600000000003</v>
+        <v>20.78599999999992</v>
       </c>
       <c r="D68" t="n">
-        <v>149.6596000000002</v>
+        <v>149.6596</v>
       </c>
       <c r="E68" t="n">
-        <v>180.8035251954068</v>
+        <v>149.659</v>
       </c>
       <c r="F68" t="n">
-        <v>-1152125.781406929</v>
+        <v>180.794</v>
       </c>
       <c r="G68" t="n">
-        <v>190.0014058065178</v>
+        <v>180.7947819498676</v>
+      </c>
+      <c r="H68" t="n">
+        <v>160.009</v>
+      </c>
+      <c r="I68" t="n">
+        <v>159.9009724209787</v>
       </c>
     </row>
     <row r="69">
@@ -2019,19 +2431,25 @@
         <v>20.786</v>
       </c>
       <c r="C69" t="n">
-        <v>20.78600000000003</v>
+        <v>20.78599999999991</v>
       </c>
       <c r="D69" t="n">
-        <v>153.8168000000002</v>
+        <v>153.8168</v>
       </c>
       <c r="E69" t="n">
-        <v>181.37353961734</v>
+        <v>153.817</v>
       </c>
       <c r="F69" t="n">
-        <v>-1188347.393168316</v>
+        <v>181.364</v>
       </c>
       <c r="G69" t="n">
-        <v>189.7604832930157</v>
+        <v>181.3642970273417</v>
+      </c>
+      <c r="H69" t="n">
+        <v>160.578</v>
+      </c>
+      <c r="I69" t="n">
+        <v>160.4696767116661</v>
       </c>
     </row>
     <row r="70">
@@ -2042,19 +2460,25 @@
         <v>20.786</v>
       </c>
       <c r="C70" t="n">
-        <v>20.78600000000002</v>
+        <v>20.78599999999991</v>
       </c>
       <c r="D70" t="n">
-        <v>157.9740000000002</v>
+        <v>157.974</v>
       </c>
       <c r="E70" t="n">
-        <v>181.9283789865951</v>
+        <v>157.974</v>
       </c>
       <c r="F70" t="n">
-        <v>-1224681.680298122</v>
+        <v>181.918</v>
       </c>
       <c r="G70" t="n">
-        <v>189.547066618174</v>
+        <v>181.9186232111915</v>
+      </c>
+      <c r="H70" t="n">
+        <v>161.132</v>
+      </c>
+      <c r="I70" t="n">
+        <v>161.0232347817179</v>
       </c>
     </row>
     <row r="71">
@@ -2065,19 +2489,25 @@
         <v>20.786</v>
       </c>
       <c r="C71" t="n">
-        <v>20.78600000000002</v>
+        <v>20.78599999999991</v>
       </c>
       <c r="D71" t="n">
-        <v>162.1312000000002</v>
+        <v>162.1312</v>
       </c>
       <c r="E71" t="n">
-        <v>182.4688324708805</v>
+        <v>162.131</v>
       </c>
       <c r="F71" t="n">
-        <v>-1261125.693272867</v>
+        <v>182.458</v>
       </c>
       <c r="G71" t="n">
-        <v>189.3586618042138</v>
+        <v>182.4585496715697</v>
+      </c>
+      <c r="H71" t="n">
+        <v>161.672</v>
+      </c>
+      <c r="I71" t="n">
+        <v>161.5624325187492</v>
       </c>
     </row>
     <row r="72">
@@ -2088,19 +2518,25 @@
         <v>20.786</v>
       </c>
       <c r="C72" t="n">
-        <v>20.78600000000001</v>
+        <v>20.78599999999991</v>
       </c>
       <c r="D72" t="n">
-        <v>166.2884000000002</v>
+        <v>166.2883999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>182.9956292875432</v>
+        <v>166.288</v>
       </c>
       <c r="F72" t="n">
-        <v>-1297676.634300345</v>
+        <v>182.984</v>
       </c>
       <c r="G72" t="n">
-        <v>189.1930432375432</v>
+        <v>182.9848056283311</v>
+      </c>
+      <c r="H72" t="n">
+        <v>162.199</v>
+      </c>
+      <c r="I72" t="n">
+        <v>162.0879961883311</v>
       </c>
     </row>
     <row r="73">
@@ -2111,19 +2547,25 @@
         <v>20.786</v>
       </c>
       <c r="C73" t="n">
-        <v>20.78600000000001</v>
+        <v>20.78599999999991</v>
       </c>
       <c r="D73" t="n">
-        <v>170.4456000000002</v>
+        <v>170.4455999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>183.5094446261704</v>
+        <v>170.445</v>
       </c>
       <c r="F73" t="n">
-        <v>-1334331.845934597</v>
+        <v>183.498</v>
       </c>
       <c r="G73" t="n">
-        <v>189.0482195529996</v>
+        <v>183.4980662736346</v>
+      </c>
+      <c r="H73" t="n">
+        <v>162.712</v>
+      </c>
+      <c r="I73" t="n">
+        <v>162.6005983165614</v>
       </c>
     </row>
     <row r="74">
@@ -2134,19 +2576,25 @@
         <v>20.786</v>
       </c>
       <c r="C74" t="n">
-        <v>20.78600000000001</v>
+        <v>20.78599999999992</v>
       </c>
       <c r="D74" t="n">
-        <v>174.6028000000002</v>
+        <v>174.6027999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>184.0109048574039</v>
+        <v>174.603</v>
       </c>
       <c r="F74" t="n">
-        <v>-1371088.800802192</v>
+        <v>183.999</v>
       </c>
       <c r="G74" t="n">
-        <v>188.9224045240705</v>
+        <v>183.998957980757</v>
+      </c>
+      <c r="H74" t="n">
+        <v>163.213</v>
+      </c>
+      <c r="I74" t="n">
+        <v>163.1008628645665</v>
       </c>
     </row>
     <row r="75">
@@ -2157,19 +2605,25 @@
         <v>20.786</v>
       </c>
       <c r="C75" t="n">
-        <v>20.786</v>
+        <v>20.78599999999992</v>
       </c>
       <c r="D75" t="n">
-        <v>178.7600000000002</v>
+        <v>178.7599999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>184.5005921287725</v>
+        <v>178.76</v>
       </c>
       <c r="F75" t="n">
-        <v>-1407945.092307443</v>
+        <v>184.498</v>
       </c>
       <c r="G75" t="n">
-        <v>188.8139921287725</v>
+        <v>184.4880628999252</v>
+      </c>
+      <c r="H75" t="n">
+        <v>163.702</v>
+      </c>
+      <c r="I75" t="n">
+        <v>163.589369794809</v>
       </c>
     </row>
     <row r="76">
@@ -2180,19 +2634,25 @@
         <v>20.786</v>
       </c>
       <c r="C76" t="n">
-        <v>20.78599999999999</v>
+        <v>20.78599999999993</v>
       </c>
       <c r="D76" t="n">
-        <v>182.9172000000002</v>
+        <v>182.9171999999998</v>
       </c>
       <c r="E76" t="n">
-        <v>184.9790484321188</v>
+        <v>182.917</v>
       </c>
       <c r="F76" t="n">
-        <v>-1444898.426202645</v>
+        <v>184.966</v>
       </c>
       <c r="G76" t="n">
-        <v>188.721535113937</v>
+        <v>184.9659230257438</v>
+      </c>
+      <c r="H76" t="n">
+        <v>164.18</v>
+      </c>
+      <c r="I76" t="n">
+        <v>164.0666591130166</v>
       </c>
     </row>
     <row r="77">
@@ -2203,19 +2663,25 @@
         <v>20.786</v>
       </c>
       <c r="C77" t="n">
-        <v>20.78599999999999</v>
+        <v>20.78599999999994</v>
       </c>
       <c r="D77" t="n">
-        <v>187.0744000000002</v>
+        <v>187.0743999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>185.44677921389</v>
+        <v>187.074</v>
       </c>
       <c r="F77" t="n">
-        <v>-1481946.612925009</v>
+        <v>185.433</v>
       </c>
       <c r="G77" t="n">
-        <v>188.6437265027788</v>
+        <v>185.4330438074847</v>
+      </c>
+      <c r="H77" t="n">
+        <v>164.647</v>
+      </c>
+      <c r="I77" t="n">
+        <v>164.5332344563736</v>
       </c>
     </row>
     <row r="78">
@@ -2226,19 +2692,25 @@
         <v>20.786</v>
       </c>
       <c r="C78" t="n">
-        <v>20.78599999999998</v>
+        <v>20.78599999999996</v>
       </c>
       <c r="D78" t="n">
-        <v>191.2316000000002</v>
+        <v>191.2315999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>185.9042565885913</v>
+        <v>191.231</v>
       </c>
       <c r="F78" t="n">
-        <v>-1519087.56061504</v>
+        <v>185.89</v>
       </c>
       <c r="G78" t="n">
-        <v>188.5793835885913</v>
+        <v>185.8898973625412</v>
+      </c>
+      <c r="H78" t="n">
+        <v>165.104</v>
+      </c>
+      <c r="I78" t="n">
+        <v>164.9895662877586</v>
       </c>
     </row>
     <row r="79">
@@ -2252,16 +2724,22 @@
         <v>20.78599999999998</v>
       </c>
       <c r="D79" t="n">
-        <v>195.3888000000002</v>
+        <v>195.3887999999998</v>
       </c>
       <c r="E79" t="n">
-        <v>186.351922206623</v>
+        <v>195.388</v>
       </c>
       <c r="F79" t="n">
-        <v>-1556319.268742256</v>
+        <v>186.337</v>
       </c>
       <c r="G79" t="n">
-        <v>188.5274340364102</v>
+        <v>186.3369253442641</v>
+      </c>
+      <c r="H79" t="n">
+        <v>165.551</v>
+      </c>
+      <c r="I79" t="n">
+        <v>165.4360947468173</v>
       </c>
     </row>
     <row r="80">
@@ -2272,19 +2750,25 @@
         <v>20.786</v>
       </c>
       <c r="C80" t="n">
-        <v>20.78599999999998</v>
+        <v>20.786</v>
       </c>
       <c r="D80" t="n">
-        <v>199.5460000000002</v>
+        <v>199.5459999999998</v>
       </c>
       <c r="E80" t="n">
-        <v>186.7901898201682</v>
+        <v>199.546</v>
       </c>
       <c r="F80" t="n">
-        <v>-1593639.822273614</v>
+        <v>186.774</v>
       </c>
       <c r="G80" t="n">
-        <v>188.4869037785015</v>
+        <v>186.7745415078502</v>
+      </c>
+      <c r="H80" t="n">
+        <v>165.988</v>
+      </c>
+      <c r="I80" t="n">
+        <v>165.8732322011836</v>
       </c>
     </row>
     <row r="81">
@@ -2295,19 +2779,25 @@
         <v>20.786</v>
       </c>
       <c r="C81" t="n">
-        <v>20.78599999999997</v>
+        <v>20.78600000000002</v>
       </c>
       <c r="D81" t="n">
-        <v>203.7032000000002</v>
+        <v>203.7031999999998</v>
       </c>
       <c r="E81" t="n">
-        <v>187.2194475844972</v>
+        <v>203.703</v>
       </c>
       <c r="F81" t="n">
-        <v>-1631047.386328073</v>
+        <v>187.203</v>
       </c>
       <c r="G81" t="n">
-        <v>188.45690644164</v>
+        <v>187.2031340116463</v>
+      </c>
+      <c r="H81" t="n">
+        <v>166.417</v>
+      </c>
+      <c r="I81" t="n">
+        <v>166.3013655349116</v>
       </c>
     </row>
     <row r="82">
@@ -2318,19 +2808,25 @@
         <v>20.786</v>
       </c>
       <c r="C82" t="n">
-        <v>20.78599999999997</v>
+        <v>20.78600000000005</v>
       </c>
       <c r="D82" t="n">
-        <v>207.8604000000001</v>
+        <v>207.8603999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>187.6400601267675</v>
+        <v>207.86</v>
       </c>
       <c r="F82" t="n">
-        <v>-1668540.201267674</v>
+        <v>187.623</v>
       </c>
       <c r="G82" t="n">
-        <v>188.4366340867674</v>
+        <v>187.6230674859483</v>
+      </c>
+      <c r="H82" t="n">
+        <v>166.837</v>
+      </c>
+      <c r="I82" t="n">
+        <v>166.7208582059483</v>
       </c>
     </row>
     <row r="83">
@@ -2341,19 +2837,25 @@
         <v>20.786</v>
       </c>
       <c r="C83" t="n">
-        <v>20.78599999999995</v>
+        <v>20.78600000000013</v>
       </c>
       <c r="D83" t="n">
-        <v>218.2534000000001</v>
+        <v>218.2533999999999</v>
       </c>
       <c r="E83" t="n">
-        <v>188.6559705354834</v>
+        <v>218.253</v>
       </c>
       <c r="F83" t="n">
-        <v>-1762634.290622575</v>
+        <v>188.637</v>
       </c>
       <c r="G83" t="n">
-        <v>188.4238130688167</v>
+        <v>188.6372198383741</v>
+      </c>
+      <c r="H83" t="n">
+        <v>167.851</v>
+      </c>
+      <c r="I83" t="n">
+        <v>167.7339820174217</v>
       </c>
     </row>
     <row r="84">
@@ -2364,433 +2866,25 @@
         <v>20.786</v>
       </c>
       <c r="C84" t="n">
-        <v>20.78599999999994</v>
+        <v>20.78600000000024</v>
       </c>
       <c r="D84" t="n">
-        <v>228.6464000000001</v>
+        <v>228.6463999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>189.6247798613407</v>
+        <v>228.646</v>
       </c>
       <c r="F84" t="n">
-        <v>-1857226.178474748</v>
+        <v>189.604</v>
       </c>
       <c r="G84" t="n">
-        <v>188.4574120067952</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>11500</v>
-      </c>
-      <c r="B85" t="n">
-        <v>20.786</v>
-      </c>
-      <c r="C85" t="n">
-        <v>20.78599999999993</v>
-      </c>
-      <c r="D85" t="n">
-        <v>239.0394000000001</v>
-      </c>
-      <c r="E85" t="n">
-        <v>190.5506846494626</v>
-      </c>
-      <c r="F85" t="n">
-        <v>-1952293.473468819</v>
-      </c>
-      <c r="G85" t="n">
-        <v>188.5294290494626</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>12000</v>
-      </c>
-      <c r="B86" t="n">
-        <v>20.786</v>
-      </c>
-      <c r="C86" t="n">
-        <v>20.78599999999992</v>
-      </c>
-      <c r="D86" t="n">
-        <v>249.4324</v>
-      </c>
-      <c r="E86" t="n">
-        <v>191.4373453600283</v>
-      </c>
-      <c r="F86" t="n">
-        <v>-2047815.74432034</v>
-      </c>
-      <c r="G86" t="n">
-        <v>188.633359326695</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>12500</v>
-      </c>
-      <c r="B87" t="n">
-        <v>20.786</v>
-      </c>
-      <c r="C87" t="n">
-        <v>20.78599999999991</v>
-      </c>
-      <c r="D87" t="n">
-        <v>259.8254</v>
-      </c>
-      <c r="E87" t="n">
-        <v>192.2879739584154</v>
-      </c>
-      <c r="F87" t="n">
-        <v>-2143774.274480192</v>
-      </c>
-      <c r="G87" t="n">
-        <v>188.7638759264154</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>13000</v>
-      </c>
-      <c r="B88" t="n">
-        <v>20.786</v>
-      </c>
-      <c r="C88" t="n">
-        <v>20.78599999999991</v>
-      </c>
-      <c r="D88" t="n">
-        <v>270.2184</v>
-      </c>
-      <c r="E88" t="n">
-        <v>193.1054043160819</v>
-      </c>
-      <c r="F88" t="n">
-        <v>-2240151.856109065</v>
-      </c>
-      <c r="G88" t="n">
-        <v>188.916587516082</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>13500</v>
-      </c>
-      <c r="B89" t="n">
-        <v>20.786</v>
-      </c>
-      <c r="C89" t="n">
-        <v>20.7859999999999</v>
-      </c>
-      <c r="D89" t="n">
-        <v>280.6113999999999</v>
-      </c>
-      <c r="E89" t="n">
-        <v>193.8921493177705</v>
-      </c>
-      <c r="F89" t="n">
-        <v>-2336932.615789902</v>
-      </c>
-      <c r="G89" t="n">
-        <v>189.0878521770298</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>14000</v>
-      </c>
-      <c r="B90" t="n">
-        <v>20.786</v>
-      </c>
-      <c r="C90" t="n">
-        <v>20.7859999999999</v>
-      </c>
-      <c r="D90" t="n">
-        <v>291.0043999999999</v>
-      </c>
-      <c r="E90" t="n">
-        <v>194.6504475779994</v>
-      </c>
-      <c r="F90" t="n">
-        <v>-2434101.866091992</v>
-      </c>
-      <c r="G90" t="n">
-        <v>189.2746329779995</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>14500</v>
-      </c>
-      <c r="B91" t="n">
-        <v>20.786</v>
-      </c>
-      <c r="C91" t="n">
-        <v>20.7859999999999</v>
-      </c>
-      <c r="D91" t="n">
-        <v>301.3973999999998</v>
-      </c>
-      <c r="E91" t="n">
-        <v>195.3823019561281</v>
-      </c>
-      <c r="F91" t="n">
-        <v>-2531645.978363857</v>
-      </c>
-      <c r="G91" t="n">
-        <v>189.4743848940591</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>15000</v>
-      </c>
-      <c r="B92" t="n">
-        <v>20.786</v>
-      </c>
-      <c r="C92" t="n">
-        <v>20.7859999999999</v>
-      </c>
-      <c r="D92" t="n">
-        <v>311.7903999999997</v>
-      </c>
-      <c r="E92" t="n">
-        <v>196.089511539333</v>
-      </c>
-      <c r="F92" t="n">
-        <v>-2629552.273089996</v>
-      </c>
-      <c r="G92" t="n">
-        <v>189.6849655126664</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>15500</v>
-      </c>
-      <c r="B93" t="n">
-        <v>20.786</v>
-      </c>
-      <c r="C93" t="n">
-        <v>20.78599999999991</v>
-      </c>
-      <c r="D93" t="n">
-        <v>322.1833999999997</v>
-      </c>
-      <c r="E93" t="n">
-        <v>196.7736983793971</v>
-      </c>
-      <c r="F93" t="n">
-        <v>-2727808.924880655</v>
-      </c>
-      <c r="G93" t="n">
-        <v>189.9045639664939</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>16000</v>
-      </c>
-      <c r="B94" t="n">
-        <v>20.786</v>
-      </c>
-      <c r="C94" t="n">
-        <v>20.78599999999992</v>
-      </c>
-      <c r="D94" t="n">
-        <v>332.5763999999996</v>
-      </c>
-      <c r="E94" t="n">
-        <v>197.4363299832349</v>
-      </c>
-      <c r="F94" t="n">
-        <v>-2826404.879731759</v>
-      </c>
-      <c r="G94" t="n">
-        <v>190.1316439582349</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>16500</v>
-      </c>
-      <c r="B95" t="n">
-        <v>20.786</v>
-      </c>
-      <c r="C95" t="n">
-        <v>20.78599999999993</v>
-      </c>
-      <c r="D95" t="n">
-        <v>342.9693999999997</v>
-      </c>
-      <c r="E95" t="n">
-        <v>198.0787383415621</v>
-      </c>
-      <c r="F95" t="n">
-        <v>-2925329.782635774</v>
-      </c>
-      <c r="G95" t="n">
-        <v>190.3648977718651</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>17000</v>
-      </c>
-      <c r="B96" t="n">
-        <v>20.786</v>
-      </c>
-      <c r="C96" t="n">
-        <v>20.78599999999996</v>
-      </c>
-      <c r="D96" t="n">
-        <v>353.3623999999996</v>
-      </c>
-      <c r="E96" t="n">
-        <v>198.7021361160963</v>
-      </c>
-      <c r="F96" t="n">
-        <v>-3024573.913973637</v>
-      </c>
-      <c r="G96" t="n">
-        <v>190.6032089160963</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>17500</v>
-      </c>
-      <c r="B97" t="n">
-        <v>20.786</v>
-      </c>
-      <c r="C97" t="n">
-        <v>20.78599999999998</v>
-      </c>
-      <c r="D97" t="n">
-        <v>363.7553999999996</v>
-      </c>
-      <c r="E97" t="n">
-        <v>199.3076304797254</v>
-      </c>
-      <c r="F97" t="n">
-        <v>-3124128.133395195</v>
-      </c>
-      <c r="G97" t="n">
-        <v>190.8456215997254</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>18000</v>
-      </c>
-      <c r="B98" t="n">
-        <v>20.786</v>
-      </c>
-      <c r="C98" t="n">
-        <v>20.78600000000001</v>
-      </c>
-      <c r="D98" t="n">
-        <v>374.1483999999996</v>
-      </c>
-      <c r="E98" t="n">
-        <v>199.8962350065254</v>
-      </c>
-      <c r="F98" t="n">
-        <v>-3223983.830117457</v>
-      </c>
-      <c r="G98" t="n">
-        <v>191.0913156509698</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>18500</v>
-      </c>
-      <c r="B99" t="n">
-        <v>20.786</v>
-      </c>
-      <c r="C99" t="n">
-        <v>20.78600000000004</v>
-      </c>
-      <c r="D99" t="n">
-        <v>384.5413999999996</v>
-      </c>
-      <c r="E99" t="n">
-        <v>200.4688799323549</v>
-      </c>
-      <c r="F99" t="n">
-        <v>-3324132.878748567</v>
-      </c>
-      <c r="G99" t="n">
-        <v>191.3395858026252</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>19000</v>
-      </c>
-      <c r="B100" t="n">
-        <v>20.786</v>
-      </c>
-      <c r="C100" t="n">
-        <v>20.78600000000008</v>
-      </c>
-      <c r="D100" t="n">
-        <v>394.9343999999997</v>
-      </c>
-      <c r="E100" t="n">
-        <v>201.0264210468513</v>
-      </c>
-      <c r="F100" t="n">
-        <v>-3424567.599890174</v>
-      </c>
-      <c r="G100" t="n">
-        <v>191.5898244994829</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>19500</v>
-      </c>
-      <c r="B101" t="n">
-        <v>20.786</v>
-      </c>
-      <c r="C101" t="n">
-        <v>20.78600000000012</v>
-      </c>
-      <c r="D101" t="n">
-        <v>405.3273999999997</v>
-      </c>
-      <c r="E101" t="n">
-        <v>201.5696474302078</v>
-      </c>
-      <c r="F101" t="n">
-        <v>-3525280.724889053</v>
-      </c>
-      <c r="G101" t="n">
-        <v>191.8415075635412</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>20000</v>
-      </c>
-      <c r="B102" t="n">
-        <v>20.786</v>
-      </c>
-      <c r="C102" t="n">
-        <v>20.78600000000017</v>
-      </c>
-      <c r="D102" t="n">
-        <v>415.7203999999998</v>
-      </c>
-      <c r="E102" t="n">
-        <v>202.0992882102802</v>
-      </c>
-      <c r="F102" t="n">
-        <v>-3626265.364205605</v>
-      </c>
-      <c r="G102" t="n">
-        <v>192.0941821902802</v>
+        <v>189.604184883361</v>
+      </c>
+      <c r="H84" t="n">
+        <v>168.818</v>
+      </c>
+      <c r="I84" t="n">
+        <v>168.7000120251792</v>
       </c>
     </row>
   </sheetData>
